--- a/flutter/flutter_new_05.xlsx
+++ b/flutter/flutter_new_05.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toyohide/Desktop/hideyuki/MY_STUDY/flutter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14F075F-50EC-1949-B779-CFE68D4686AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688698DF-C299-EA42-BB90-BF291470B869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3480" windowWidth="24380" windowHeight="12600" activeTab="2" xr2:uid="{9EB48955-9C18-A442-AA06-3F1E4BD2E3B7}"/>
+    <workbookView xWindow="2980" yWindow="4560" windowWidth="24380" windowHeight="12600" activeTab="4" xr2:uid="{9EB48955-9C18-A442-AA06-3F1E4BD2E3B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="アニメーション" sheetId="2" r:id="rId2"/>
     <sheet name="fvm" sheetId="3" r:id="rId3"/>
+    <sheet name="splash" sheetId="4" r:id="rId4"/>
+    <sheet name="三浦のやつ①" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="1139">
   <si>
     <t>https://www.youtube.com/watch?v=ksaXszTHoys</t>
     <phoneticPr fontId="1"/>
@@ -16024,6 +16026,2889 @@
   </si>
   <si>
     <t>}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro test_splash % cat pubspec.yaml </t>
+  </si>
+  <si>
+    <t>name: test_splash</t>
+  </si>
+  <si>
+    <t>description: A new Flutter project.</t>
+  </si>
+  <si>
+    <t>publish_to: 'none'</t>
+  </si>
+  <si>
+    <t>version: 1.0.0+1</t>
+  </si>
+  <si>
+    <t>environment:</t>
+  </si>
+  <si>
+    <t>  sdk: "&gt;=2.17.6 &lt;3.0.0"</t>
+  </si>
+  <si>
+    <t>dependencies:</t>
+  </si>
+  <si>
+    <t>  animated_splash_screen: ^1.3.0</t>
+  </si>
+  <si>
+    <t>  cupertino_icons: ^1.0.2</t>
+  </si>
+  <si>
+    <t>  flutter:</t>
+  </si>
+  <si>
+    <t>    sdk: flutter</t>
+  </si>
+  <si>
+    <t>dev_dependencies:</t>
+  </si>
+  <si>
+    <t>  flutter_test:</t>
+  </si>
+  <si>
+    <t>  flutter_lints: ^2.0.0</t>
+  </si>
+  <si>
+    <t>flutter:</t>
+  </si>
+  <si>
+    <t>  uses-material-design: true</t>
+  </si>
+  <si>
+    <t>  assets:</t>
+  </si>
+  <si>
+    <t>    - assets/images/</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro test_splash % pwd</t>
+  </si>
+  <si>
+    <t>/Users/toyohide/StudioProjects/test_splash</t>
+  </si>
+  <si>
+    <t>include: package:flutter_lints/flutter.yaml</t>
+  </si>
+  <si>
+    <t>analyzer:</t>
+  </si>
+  <si>
+    <t>  strong-mode:</t>
+  </si>
+  <si>
+    <t>    implicit-casts: false</t>
+  </si>
+  <si>
+    <t>    implicit-dynamic: false</t>
+  </si>
+  <si>
+    <t>  errors:</t>
+  </si>
+  <si>
+    <t>    missing_required_param: warning</t>
+  </si>
+  <si>
+    <t>    missing_return: warning</t>
+  </si>
+  <si>
+    <t>    flutter_style_todos: ignore</t>
+  </si>
+  <si>
+    <t>    require_trailing_commas: ignore</t>
+  </si>
+  <si>
+    <t>    always_use_package_imports: ignore</t>
+  </si>
+  <si>
+    <t>    public_member_api_docs: ignore</t>
+  </si>
+  <si>
+    <t>    lines_longer_than_80_chars: ignore</t>
+  </si>
+  <si>
+    <t>    avoid_function_literals_in_foreach_calls: ignore</t>
+  </si>
+  <si>
+    <t>    implicit_dynamic_parameter: ignore</t>
+  </si>
+  <si>
+    <t>    implicit_dynamic_type: ignore</t>
+  </si>
+  <si>
+    <t>    implicit_dynamic_map_literal: ignore</t>
+  </si>
+  <si>
+    <t>    implicit_dynamic_method: ignore</t>
+  </si>
+  <si>
+    <t>    implicit_dynamic_list_literal: ignore</t>
+  </si>
+  <si>
+    <t>    implicit_dynamic_variable: ignore</t>
+  </si>
+  <si>
+    <t>    implicit_dynamic_function: ignore</t>
+  </si>
+  <si>
+    <t>    avoid_setters_without_getters: ignore</t>
+  </si>
+  <si>
+    <t>    use_setters_to_change_properties: ignore</t>
+  </si>
+  <si>
+    <t>    inference_failure_on_function_return_type: ignore</t>
+  </si>
+  <si>
+    <t>    inference_failure_on_function_invocation: ignore</t>
+  </si>
+  <si>
+    <t>    inference_failure_on_instance_creation: ignore</t>
+  </si>
+  <si>
+    <t>    invalid_annotation_target: ignore</t>
+  </si>
+  <si>
+    <t>  language:</t>
+  </si>
+  <si>
+    <t>    strict-inference: true</t>
+  </si>
+  <si>
+    <t>    strict-raw-types: true</t>
+  </si>
+  <si>
+    <t>linter:</t>
+  </si>
+  <si>
+    <t>  rules:</t>
+  </si>
+  <si>
+    <t>    - always_declare_return_types</t>
+  </si>
+  <si>
+    <t>    - always_put_control_body_on_new_line</t>
+  </si>
+  <si>
+    <t>    - avoid_bool_literals_in_conditional_expressions</t>
+  </si>
+  <si>
+    <t>    - avoid_catches_without_on_clauses</t>
+  </si>
+  <si>
+    <t>    - avoid_catching_errors</t>
+  </si>
+  <si>
+    <t>    - avoid_classes_with_only_static_members</t>
+  </si>
+  <si>
+    <t>    - avoid_double_and_int_checks</t>
+  </si>
+  <si>
+    <t>    - avoid_dynamic_calls</t>
+  </si>
+  <si>
+    <t>    - avoid_field_initializers_in_const_classes</t>
+  </si>
+  <si>
+    <t>    - avoid_final_parameters</t>
+  </si>
+  <si>
+    <t>    - avoid_implementing_value_types</t>
+  </si>
+  <si>
+    <t>    - avoid_js_rounded_ints</t>
+  </si>
+  <si>
+    <t>    - avoid_multiple_declarations_per_line</t>
+  </si>
+  <si>
+    <t>    - avoid_positional_boolean_parameters</t>
+  </si>
+  <si>
+    <t>    - avoid_private_typedef_functions</t>
+  </si>
+  <si>
+    <t>    - avoid_redundant_argument_values</t>
+  </si>
+  <si>
+    <t>    - avoid_returning_null</t>
+  </si>
+  <si>
+    <t>    - avoid_returning_this</t>
+  </si>
+  <si>
+    <t>    - avoid_setters_without_getters</t>
+  </si>
+  <si>
+    <t>    - avoid_slow_async_io</t>
+  </si>
+  <si>
+    <t>    - avoid_type_to_string</t>
+  </si>
+  <si>
+    <t>    - avoid_unused_constructor_parameters</t>
+  </si>
+  <si>
+    <t>    - avoid_void_async</t>
+  </si>
+  <si>
+    <t>    - cancel_subscriptions</t>
+  </si>
+  <si>
+    <t>    - cascade_invocations</t>
+  </si>
+  <si>
+    <t>    - cast_nullable_to_non_nullable</t>
+  </si>
+  <si>
+    <t>    - close_sinks</t>
+  </si>
+  <si>
+    <t>    - comment_references</t>
+  </si>
+  <si>
+    <t>    - deprecated_consistency</t>
+  </si>
+  <si>
+    <t>    - directives_ordering</t>
+  </si>
+  <si>
+    <t>    - eol_at_end_of_file</t>
+  </si>
+  <si>
+    <t>    - flutter_style_todos</t>
+  </si>
+  <si>
+    <t>    - invariant_booleans</t>
+  </si>
+  <si>
+    <t>    - join_return_with_assignment</t>
+  </si>
+  <si>
+    <t>    - lines_longer_than_80_chars</t>
+  </si>
+  <si>
+    <t>    - literal_only_boolean_expressions</t>
+  </si>
+  <si>
+    <t>    - no_adjacent_strings_in_list</t>
+  </si>
+  <si>
+    <t>    - no_default_cases</t>
+  </si>
+  <si>
+    <t>    - noop_primitive_operations</t>
+  </si>
+  <si>
+    <t>    - omit_local_variable_types</t>
+  </si>
+  <si>
+    <t>    - one_member_abstracts</t>
+  </si>
+  <si>
+    <t>    - only_throw_errors</t>
+  </si>
+  <si>
+    <t>    - package_api_docs</t>
+  </si>
+  <si>
+    <t>    - parameter_assignments</t>
+  </si>
+  <si>
+    <t>    - prefer_asserts_in_initializer_lists</t>
+  </si>
+  <si>
+    <t>    - prefer_constructors_over_static_methods</t>
+  </si>
+  <si>
+    <t>    - prefer_final_in_for_each</t>
+  </si>
+  <si>
+    <t>    - prefer_final_locals</t>
+  </si>
+  <si>
+    <t>    - prefer_foreach</t>
+  </si>
+  <si>
+    <t>    - prefer_int_literals</t>
+  </si>
+  <si>
+    <t>    - prefer_single_quotes</t>
+  </si>
+  <si>
+    <t>    - require_trailing_commas</t>
+  </si>
+  <si>
+    <t>    - secure_pubspec_urls</t>
+  </si>
+  <si>
+    <t>    - sized_box_shrink_expand</t>
+  </si>
+  <si>
+    <t>    - sort_constructors_first</t>
+  </si>
+  <si>
+    <t>    - sort_pub_dependencies</t>
+  </si>
+  <si>
+    <t>    - sort_unnamed_constructors_first</t>
+  </si>
+  <si>
+    <t>    - test_types_in_equals</t>
+  </si>
+  <si>
+    <t>    - throw_in_finally</t>
+  </si>
+  <si>
+    <t>    - tighten_type_of_initializing_formals</t>
+  </si>
+  <si>
+    <t>    - type_annotate_public_apis</t>
+  </si>
+  <si>
+    <t>    - unawaited_futures</t>
+  </si>
+  <si>
+    <t>    - unnecessary_await_in_return</t>
+  </si>
+  <si>
+    <t>    - unnecessary_lambdas</t>
+  </si>
+  <si>
+    <t>    - unnecessary_null_checks</t>
+  </si>
+  <si>
+    <t>    - unnecessary_parenthesis</t>
+  </si>
+  <si>
+    <t>    - unnecessary_statements</t>
+  </si>
+  <si>
+    <t>    - unsafe_html</t>
+  </si>
+  <si>
+    <t>    - use_colored_box</t>
+  </si>
+  <si>
+    <t>    - use_decorated_box</t>
+  </si>
+  <si>
+    <t>    - use_enums</t>
+  </si>
+  <si>
+    <t>    - use_is_even_rather_than_modulo</t>
+  </si>
+  <si>
+    <t>    - use_late_for_private_fields_and_variables</t>
+  </si>
+  <si>
+    <t>    - use_named_constants</t>
+  </si>
+  <si>
+    <t>    - use_setters_to_change_properties</t>
+  </si>
+  <si>
+    <t>    - use_string_buffers</t>
+  </si>
+  <si>
+    <t>    - use_super_parameters</t>
+  </si>
+  <si>
+    <t>    - use_test_throws_matchers</t>
+  </si>
+  <si>
+    <t>    - use_to_and_as_if_applicable</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro test_splash % cat analysis_options.yaml</t>
+  </si>
+  <si>
+    <t>/////////////////////////////////////////////////////////////////</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'package:animated_splash_screen/animated_splash_screen.dart'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>MyApp({</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>.key});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>MaterialApp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      theme: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>ThemeData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        primarySwatch: Colors.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>blue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      home: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>SplashScreen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">SplashScreen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>StatelessWidget {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>SplashScreen({</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>.key});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>AnimatedSplashScreen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      splash: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Column</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>SizedBox</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            width: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            height: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            child: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>asset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'assets/images/launcher.png'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'splash'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            style: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>TextStyle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              fontSize: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              fontWeight: FontWeight.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>bold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              color: Colors.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>white</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Expanded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">(child: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Container</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>()),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      backgroundColor: Colors.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>redAccent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      nextScreen: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>HomeScreen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      splashIconSize: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>250</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">HomeScreen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>StatelessWidget {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>HomeScreen({</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>.key});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      appBar: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>AppBar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        title: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'Home'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      duration: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>4000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      splashTransition: SplashTransition.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>slideTransition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'package:page_transition/page_transition.dart'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>//</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>pageTransitionType: PageTransitionType.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>leftToRight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>// ignore_for_file: depend_on_referenced_packages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      // pageTransitionType: PageTransitionType.leftToRight,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>// splashTransition: SplashTransition.slideTransition,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>splashTransition: SplashTransition.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>sizeTransition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      pageTransitionType: PageTransitionType.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>leftToRightWithFade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">animationDuration: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Duration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">(seconds: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <t>another package</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://lottiefiles.com/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lottiefiles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    - assets/images/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - assets/lottie/</t>
+  </si>
+  <si>
+    <r>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>: test_splash</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>animated_splash_screen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>: ^1.3.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>lottie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>: ^1.4.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>assets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      // Column(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      //   children: [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      //     SizedBox(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      //       width: 200,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      //       height: 200,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      //       child: Image.asset('assets/images/launcher.png'),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      //     ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      //     const Text(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      //       'splash',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      //       style: TextStyle(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      //         fontSize: 40,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      //         fontWeight: FontWeight.bold,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      //         color: Colors.white,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      //       ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      //     Expanded(child: Container()),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      //   ],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      // ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      //</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'package:lottie/lottie.dart'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      splash: Lottie.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>asset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'assets/lottie/loading_icon.json'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>backgroundColor: Colors.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>redAccent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>//      splashTransition: SplashTransition.sizeTransition,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>pageTransitionType: PageTransitionType.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>leftToRightWithFade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>splashTransition: SplashTransition.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>fadeTransition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro lib % tree</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>├── main.dart</t>
+  </si>
+  <si>
+    <t>├── provider</t>
+  </si>
+  <si>
+    <t>│   └── counter</t>
+  </si>
+  <si>
+    <t>│       ├── notifier.dart</t>
+  </si>
+  <si>
+    <t>│       └── notifier.freezed.dart</t>
+  </si>
+  <si>
+    <t>└── view</t>
+  </si>
+  <si>
+    <t>    └── page</t>
+  </si>
+  <si>
+    <t>        └── home</t>
+  </si>
+  <si>
+    <t>            └── widget.dart</t>
+  </si>
+  <si>
+    <t>5 directories, 4 files</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro tutorial_hooks_freezed % flutter pub run build_runner build --delete-conflicting-outputs</t>
+  </si>
+  <si>
+    <t>flutter pub run build_runner build --delete-conflicting-outputs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  runApp(</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'package:hooks_riverpod/hooks_riverpod.dart'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'view/page/home/widget.dart'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>ProviderScope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">(child: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>()),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">App </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>StatelessWidget {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">App({Key? key}) : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(key: key);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      home: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>MyHomePage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(),</t>
+    </r>
+  </si>
+  <si>
+    <t>lib/view/page/home/widget.dart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        onPressed: () {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'../../../provider/counter/notifier.dart'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">MyHomePage </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>HookConsumerWidget {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">MyHomePage({Key? key}) : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(key: key);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Widget build(BuildContext context, WidgetRef ref) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">final </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>counter = ref.watch(counterProvider);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        title: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'Riverpod counter example'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      body: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Center</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        child: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>${counter.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          style: Theme.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(context).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>textTheme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>headline4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      floatingActionButton: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>FloatingActionButton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          ref.read(counterProvider.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>notifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>).increment();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        child: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Icon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(Icons.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <t>lib/provider/counter/notifier.dart</t>
+  </si>
+  <si>
+    <t>//////////////////////////////////////////////////////</t>
+  </si>
+  <si>
+    <t>@freezed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }) = _Counter;</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'package:freezed_annotation/freezed_annotation.dart'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">part </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'notifier.freezed.dart'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">CounterState </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>_$CounterState {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const factory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>CounterState({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>//NullSafety</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Menlo-Regular"/>
+      </rPr>
+      <t>のためデフォルト値の指定が必須</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>@Default(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>int count,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">final </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">counterProvider = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>StateNotifierProvider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>&lt;CounterNotifier, CounterState&gt;(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  (ref) =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>CounterNotifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>CounterState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>()),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">CounterNotifier </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>StateNotifier&lt;CounterState&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  CounterNotifier(CounterState state) : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(state);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">// state </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Menlo-Regular"/>
+      </rPr>
+      <t>は</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve"> immutable </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Menlo-Regular"/>
+      </rPr>
+      <t>なため、</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">copyWith </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Menlo-Regular"/>
+      </rPr>
+      <t>で複製する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>increment() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">state </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>copyWith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">(count: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">count </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>[Flutter] hooks_riverpod + StateNotifier + freezed でカウンターアプリチュートリアル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://runble1.com/flutter-hooks-riverpod-statenotifier-freezed-counter/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -16031,7 +18916,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -16164,6 +19049,36 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF808080"/>
+      <name val="Menlo-Regular"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -16294,7 +19209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -16412,6 +19327,42 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -16419,6 +19370,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF85FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -16600,6 +19556,104 @@
         <a:xfrm>
           <a:off x="1193800" y="291058600"/>
           <a:ext cx="4406900" cy="9245600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>497</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>502</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE1F4D5-6534-D02F-6074-F437F6A65B2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4178300" y="151485600"/>
+          <a:ext cx="2603500" cy="1816100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FCC035E-1F09-B92D-2840-10972195856F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1193800" y="1270000"/>
+          <a:ext cx="3340100" cy="2222500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -38203,7 +41257,7 @@
   </sheetPr>
   <dimension ref="A5:V634"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B619" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -41421,4 +44475,5524 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A59F7EE-7372-8841-961A-98D8953C2328}">
+  <sheetPr>
+    <tabColor rgb="FFFF85FF"/>
+  </sheetPr>
+  <dimension ref="A6:N731"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B704" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="O712" sqref="O712"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="24"/>
+  <cols>
+    <col min="1" max="16384" width="6.7109375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:12">
+      <c r="C6" s="39" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="C7" s="39" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="C8" s="39"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="C9" s="39"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="C11" s="39"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="C12" s="39"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="C13" s="39" t="s">
+        <v>876</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="C14" s="39" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="C15" s="39" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="39" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="39" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="39" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="39" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="39" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="40" t="s">
+        <v>884</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="39" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29" s="39" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30" s="39" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="39" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="C33" s="39" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="C34" s="39" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="C36" s="39" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="C38" s="39" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="C40" s="39" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="C42" s="40" t="s">
+        <v>893</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="C43" s="40" t="s">
+        <v>894</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="C44" s="39"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="C45" s="39"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="C47" s="39"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="C48" s="39"/>
+    </row>
+    <row r="49" spans="3:14">
+      <c r="C49" s="39" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+    </row>
+    <row r="50" spans="3:14">
+      <c r="C50" s="39" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14">
+      <c r="C51" s="39" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14">
+      <c r="C52" s="39" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14">
+      <c r="C53" s="39" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14">
+      <c r="C54" s="39" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14">
+      <c r="C55" s="39" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14">
+      <c r="C56" s="39" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14">
+      <c r="C57" s="39" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14">
+      <c r="C58" s="39" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14">
+      <c r="C59" s="39" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14">
+      <c r="C60" s="39" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14">
+      <c r="C61" s="39" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14">
+      <c r="C62" s="39" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14">
+      <c r="C63" s="39" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14">
+      <c r="C64" s="39" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="39" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="39" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="39" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="39" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="39" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="39" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="39" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="39" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="39" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="39" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="39" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="39" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="39" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="39" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="39" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="39" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="39" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="39" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="39" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="39" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="39" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="39" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="39" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="39" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="39" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="39" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="39" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="39" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="39" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="39" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="39" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="39" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="39" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="39" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="39" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="39" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="39" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="39" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="39" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" s="39" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="39" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="39" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="39" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="39" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" s="39" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" s="39" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" s="39" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="39" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" s="39" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="39" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" s="39" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" s="39" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="39" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" s="39" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" s="39" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" s="39" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" s="39" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="39" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" s="39" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" s="39" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" s="39" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="39" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" s="39" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" s="39" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" s="39" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" s="39" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132" s="39" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133" s="39" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" s="39" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135" s="39" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136" s="39" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" s="39" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138" s="39" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139" s="39" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140" s="39" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141" s="39" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" s="39" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143" s="39" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" s="39" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145" s="39" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146" s="39" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" s="39" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" s="39" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" s="39" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150" s="39" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3">
+      <c r="C151" s="39" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152" s="39" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3">
+      <c r="C153" s="39" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154" s="39" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155" s="39" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3">
+      <c r="C156" s="39" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3">
+      <c r="C157" s="39" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3">
+      <c r="C158" s="39" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159" s="39" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3">
+      <c r="C160" s="39" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="C161" s="39"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="C162" s="39"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="15"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="40"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="C164" s="39"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="C166" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="D168" s="6" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="D169" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="D171" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="D172" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="D173" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="D175" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="D176" s="9" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4">
+      <c r="D178" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4">
+      <c r="D179" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4">
+      <c r="D180" s="9" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4">
+      <c r="D181" s="9" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4">
+      <c r="D182" s="9" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4">
+      <c r="D183" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4">
+      <c r="D184" s="9" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4">
+      <c r="D185" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186" spans="4:4">
+      <c r="D186" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="4:4">
+      <c r="D187" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="4:4">
+      <c r="D189" s="18" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="191" spans="4:4">
+      <c r="D191" s="6" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4">
+      <c r="D192" s="9" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4">
+      <c r="D194" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4">
+      <c r="D195" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4">
+      <c r="D196" s="9" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4">
+      <c r="D197" s="9" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4">
+      <c r="D198" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="199" spans="4:4">
+      <c r="D199" s="9" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="200" spans="4:4">
+      <c r="D200" s="9" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="201" spans="4:4">
+      <c r="D201" s="9" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="202" spans="4:4">
+      <c r="D202" s="9" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="203" spans="4:4">
+      <c r="D203" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="204" spans="4:4">
+      <c r="D204" s="9" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="205" spans="4:4">
+      <c r="D205" s="9" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="206" spans="4:4">
+      <c r="D206" s="9" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="207" spans="4:4">
+      <c r="D207" s="9" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="208" spans="4:4">
+      <c r="D208" s="9" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4">
+      <c r="D209" s="9" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4">
+      <c r="D210" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4">
+      <c r="D211" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="212" spans="4:4">
+      <c r="D212" s="9" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="213" spans="4:4">
+      <c r="D213" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="214" spans="4:4">
+      <c r="D214" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="215" spans="4:4">
+      <c r="D215" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="216" spans="4:4">
+      <c r="D216" s="9" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="217" spans="4:4">
+      <c r="D217" s="9" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="218" spans="4:4">
+      <c r="D218" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219" spans="4:4">
+      <c r="D219" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="220" spans="4:4">
+      <c r="D220" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222" spans="4:4">
+      <c r="D222" s="18" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="224" spans="4:4">
+      <c r="D224" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="225" spans="4:4">
+      <c r="D225" s="9" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="227" spans="4:4">
+      <c r="D227" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="228" spans="4:4">
+      <c r="D228" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229" spans="4:4">
+      <c r="D229" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="230" spans="4:4">
+      <c r="D230" s="9" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="231" spans="4:4">
+      <c r="D231" s="9" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="232" spans="4:4">
+      <c r="D232" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="233" spans="4:4">
+      <c r="D233" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="234" spans="4:4">
+      <c r="D234" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="235" spans="4:4">
+      <c r="D235" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="4:4" s="15" customFormat="1"/>
+    <row r="239" spans="4:4" s="15" customFormat="1"/>
+    <row r="240" spans="4:4" s="15" customFormat="1"/>
+    <row r="244" spans="4:4">
+      <c r="D244" s="6" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="245" spans="4:4">
+      <c r="D245" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="247" spans="4:4">
+      <c r="D247" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="248" spans="4:4">
+      <c r="D248" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="249" spans="4:4">
+      <c r="D249" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="251" spans="4:4">
+      <c r="D251" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="252" spans="4:4">
+      <c r="D252" s="9" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="254" spans="4:4">
+      <c r="D254" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="255" spans="4:4">
+      <c r="D255" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="256" spans="4:4">
+      <c r="D256" s="9" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="257" spans="4:4">
+      <c r="D257" s="9" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="258" spans="4:4">
+      <c r="D258" s="9" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="259" spans="4:4">
+      <c r="D259" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="260" spans="4:4">
+      <c r="D260" s="9" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="261" spans="4:4">
+      <c r="D261" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="262" spans="4:4">
+      <c r="D262" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="263" spans="4:4">
+      <c r="D263" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="4:4">
+      <c r="D265" s="18" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="267" spans="4:4">
+      <c r="D267" s="6" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="268" spans="4:4">
+      <c r="D268" s="9" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="270" spans="4:4">
+      <c r="D270" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="271" spans="4:4">
+      <c r="D271" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="272" spans="4:4">
+      <c r="D272" s="9" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="273" spans="4:4">
+      <c r="D273" s="9" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="274" spans="4:4">
+      <c r="D274" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="275" spans="4:4">
+      <c r="D275" s="9" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="276" spans="4:4">
+      <c r="D276" s="9" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="277" spans="4:4">
+      <c r="D277" s="9" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="278" spans="4:4">
+      <c r="D278" s="9" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="279" spans="4:4">
+      <c r="D279" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="280" spans="4:4">
+      <c r="D280" s="9" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="281" spans="4:4">
+      <c r="D281" s="9" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="282" spans="4:4">
+      <c r="D282" s="9" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="283" spans="4:4">
+      <c r="D283" s="9" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="284" spans="4:4">
+      <c r="D284" s="9" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="285" spans="4:4">
+      <c r="D285" s="9" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="286" spans="4:4">
+      <c r="D286" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="287" spans="4:4">
+      <c r="D287" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="288" spans="4:4">
+      <c r="D288" s="9" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="289" spans="3:12">
+      <c r="D289" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="290" spans="3:12">
+      <c r="D290" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="291" spans="3:12">
+      <c r="D291" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="292" spans="3:12">
+      <c r="D292" s="9" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="293" spans="3:12">
+      <c r="C293" s="15"/>
+      <c r="D293" s="14" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E293" s="15"/>
+      <c r="F293" s="15"/>
+      <c r="G293" s="15"/>
+      <c r="H293" s="15"/>
+      <c r="I293" s="15"/>
+      <c r="J293" s="15"/>
+      <c r="K293" s="15"/>
+      <c r="L293" s="15"/>
+    </row>
+    <row r="294" spans="3:12">
+      <c r="C294" s="15"/>
+      <c r="D294" s="14" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E294" s="15"/>
+      <c r="F294" s="15"/>
+      <c r="G294" s="15"/>
+      <c r="H294" s="15"/>
+      <c r="I294" s="15"/>
+      <c r="J294" s="15"/>
+      <c r="K294" s="15"/>
+      <c r="L294" s="15"/>
+    </row>
+    <row r="295" spans="3:12">
+      <c r="C295" s="15"/>
+      <c r="D295" s="14" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E295" s="15"/>
+      <c r="F295" s="15"/>
+      <c r="G295" s="15"/>
+      <c r="H295" s="15"/>
+      <c r="I295" s="15"/>
+      <c r="J295" s="15"/>
+      <c r="K295" s="15"/>
+      <c r="L295" s="15"/>
+    </row>
+    <row r="296" spans="3:12">
+      <c r="D296" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="297" spans="3:12">
+      <c r="D297" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="298" spans="3:12">
+      <c r="D298" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="300" spans="3:12">
+      <c r="D300" s="18" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="302" spans="3:12">
+      <c r="D302" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="303" spans="3:12">
+      <c r="D303" s="9" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="305" spans="4:4">
+      <c r="D305" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="306" spans="4:4">
+      <c r="D306" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="307" spans="4:4">
+      <c r="D307" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="308" spans="4:4">
+      <c r="D308" s="9" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="309" spans="4:4">
+      <c r="D309" s="9" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="310" spans="4:4">
+      <c r="D310" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="311" spans="4:4">
+      <c r="D311" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="312" spans="4:4">
+      <c r="D312" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="313" spans="4:4">
+      <c r="D313" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316" spans="4:4" s="15" customFormat="1"/>
+    <row r="317" spans="4:4" s="15" customFormat="1"/>
+    <row r="318" spans="4:4" s="15" customFormat="1"/>
+    <row r="322" spans="3:13">
+      <c r="D322" s="6" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="323" spans="3:13">
+      <c r="D323" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="325" spans="3:13">
+      <c r="C325" s="15"/>
+      <c r="D325" s="41" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E325" s="15"/>
+      <c r="F325" s="15"/>
+      <c r="G325" s="15"/>
+      <c r="H325" s="15"/>
+      <c r="I325" s="15"/>
+      <c r="J325" s="15"/>
+      <c r="K325" s="15"/>
+      <c r="L325" s="15"/>
+      <c r="M325" s="15"/>
+    </row>
+    <row r="327" spans="3:13">
+      <c r="D327" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="328" spans="3:13">
+      <c r="D328" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="329" spans="3:13">
+      <c r="D329" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="331" spans="3:13">
+      <c r="D331" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="332" spans="3:13">
+      <c r="D332" s="9" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="334" spans="3:13">
+      <c r="D334" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="335" spans="3:13">
+      <c r="D335" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="336" spans="3:13">
+      <c r="D336" s="9" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="337" spans="4:4">
+      <c r="D337" s="9" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="338" spans="4:4">
+      <c r="D338" s="9" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="339" spans="4:4">
+      <c r="D339" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="340" spans="4:4">
+      <c r="D340" s="9" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="341" spans="4:4">
+      <c r="D341" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="342" spans="4:4">
+      <c r="D342" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="343" spans="4:4">
+      <c r="D343" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="345" spans="4:4">
+      <c r="D345" s="18" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="347" spans="4:4">
+      <c r="D347" s="6" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="348" spans="4:4">
+      <c r="D348" s="9" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="350" spans="4:4">
+      <c r="D350" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="351" spans="4:4">
+      <c r="D351" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="352" spans="4:4">
+      <c r="D352" s="9" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="353" spans="4:4">
+      <c r="D353" s="9" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="354" spans="4:4">
+      <c r="D354" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="355" spans="4:4">
+      <c r="D355" s="9" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="356" spans="4:4">
+      <c r="D356" s="9" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="357" spans="4:4">
+      <c r="D357" s="9" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="358" spans="4:4">
+      <c r="D358" s="9" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="359" spans="4:4">
+      <c r="D359" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="360" spans="4:4">
+      <c r="D360" s="9" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="361" spans="4:4">
+      <c r="D361" s="9" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="362" spans="4:4">
+      <c r="D362" s="9" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="363" spans="4:4">
+      <c r="D363" s="9" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="364" spans="4:4">
+      <c r="D364" s="9" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="365" spans="4:4">
+      <c r="D365" s="9" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="366" spans="4:4">
+      <c r="D366" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="367" spans="4:4">
+      <c r="D367" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="368" spans="4:4">
+      <c r="D368" s="9" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="369" spans="3:13">
+      <c r="D369" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="370" spans="3:13">
+      <c r="D370" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="371" spans="3:13">
+      <c r="D371" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="372" spans="3:13">
+      <c r="D372" s="9" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="373" spans="3:13">
+      <c r="D373" s="9" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="374" spans="3:13">
+      <c r="D374" s="9" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="375" spans="3:13">
+      <c r="D375" s="9" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="377" spans="3:13">
+      <c r="C377" s="15"/>
+      <c r="D377" s="14" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E377" s="15"/>
+      <c r="F377" s="15"/>
+      <c r="G377" s="15"/>
+      <c r="H377" s="15"/>
+      <c r="I377" s="15"/>
+      <c r="J377" s="15"/>
+      <c r="K377" s="15"/>
+      <c r="L377" s="15"/>
+      <c r="M377" s="15"/>
+    </row>
+    <row r="378" spans="3:13">
+      <c r="C378" s="15"/>
+      <c r="D378" s="42" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E378" s="15"/>
+      <c r="F378" s="15"/>
+      <c r="G378" s="15"/>
+      <c r="H378" s="15"/>
+      <c r="I378" s="15"/>
+      <c r="J378" s="15"/>
+      <c r="K378" s="15"/>
+      <c r="L378" s="15"/>
+      <c r="M378" s="15"/>
+    </row>
+    <row r="379" spans="3:13">
+      <c r="C379" s="15"/>
+      <c r="D379" s="14" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E379" s="15"/>
+      <c r="F379" s="15"/>
+      <c r="G379" s="15"/>
+      <c r="H379" s="15"/>
+      <c r="I379" s="15"/>
+      <c r="J379" s="15"/>
+      <c r="K379" s="15"/>
+      <c r="L379" s="15"/>
+      <c r="M379" s="15"/>
+    </row>
+    <row r="380" spans="3:13">
+      <c r="D380" s="18" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="381" spans="3:13">
+      <c r="D381" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="382" spans="3:13">
+      <c r="D382" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="384" spans="3:13">
+      <c r="D384" s="18" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="386" spans="4:4">
+      <c r="D386" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="387" spans="4:4">
+      <c r="D387" s="9" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="389" spans="4:4">
+      <c r="D389" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="390" spans="4:4">
+      <c r="D390" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="391" spans="4:4">
+      <c r="D391" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="392" spans="4:4">
+      <c r="D392" s="9" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="393" spans="4:4">
+      <c r="D393" s="9" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="394" spans="4:4">
+      <c r="D394" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="395" spans="4:4">
+      <c r="D395" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="396" spans="4:4">
+      <c r="D396" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="397" spans="4:4">
+      <c r="D397" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="400" spans="4:4" s="15" customFormat="1"/>
+    <row r="401" spans="4:4" s="15" customFormat="1"/>
+    <row r="402" spans="4:4" s="15" customFormat="1"/>
+    <row r="406" spans="4:4">
+      <c r="D406" s="18" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="408" spans="4:4">
+      <c r="D408" s="6" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="409" spans="4:4">
+      <c r="D409" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="411" spans="4:4">
+      <c r="D411" s="6" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="413" spans="4:4">
+      <c r="D413" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="414" spans="4:4">
+      <c r="D414" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="415" spans="4:4">
+      <c r="D415" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="417" spans="4:4">
+      <c r="D417" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="418" spans="4:4">
+      <c r="D418" s="9" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="420" spans="4:4">
+      <c r="D420" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="421" spans="4:4">
+      <c r="D421" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="422" spans="4:4">
+      <c r="D422" s="9" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="423" spans="4:4">
+      <c r="D423" s="9" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="424" spans="4:4">
+      <c r="D424" s="9" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="425" spans="4:4">
+      <c r="D425" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="426" spans="4:4">
+      <c r="D426" s="9" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="427" spans="4:4">
+      <c r="D427" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="428" spans="4:4">
+      <c r="D428" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="429" spans="4:4">
+      <c r="D429" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="431" spans="4:4">
+      <c r="D431" s="18" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="433" spans="4:4">
+      <c r="D433" s="6" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="434" spans="4:4">
+      <c r="D434" s="9" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="436" spans="4:4">
+      <c r="D436" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="437" spans="4:4">
+      <c r="D437" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="438" spans="4:4">
+      <c r="D438" s="9" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="439" spans="4:4">
+      <c r="D439" s="9" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="440" spans="4:4">
+      <c r="D440" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="441" spans="4:4">
+      <c r="D441" s="9" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="442" spans="4:4">
+      <c r="D442" s="9" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="443" spans="4:4">
+      <c r="D443" s="9" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="444" spans="4:4">
+      <c r="D444" s="9" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="445" spans="4:4">
+      <c r="D445" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="446" spans="4:4">
+      <c r="D446" s="9" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="447" spans="4:4">
+      <c r="D447" s="9" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="448" spans="4:4">
+      <c r="D448" s="9" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="449" spans="3:14">
+      <c r="D449" s="9" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="450" spans="3:14">
+      <c r="D450" s="9" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="451" spans="3:14">
+      <c r="D451" s="9" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="452" spans="3:14">
+      <c r="D452" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="453" spans="3:14">
+      <c r="D453" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="454" spans="3:14">
+      <c r="D454" s="9" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="455" spans="3:14">
+      <c r="D455" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="456" spans="3:14">
+      <c r="D456" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="457" spans="3:14">
+      <c r="D457" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="458" spans="3:14">
+      <c r="D458" s="9" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="459" spans="3:14">
+      <c r="D459" s="9" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="460" spans="3:14">
+      <c r="D460" s="9" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="462" spans="3:14">
+      <c r="C462" s="15"/>
+      <c r="D462" s="14" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E462" s="15"/>
+      <c r="F462" s="15"/>
+      <c r="G462" s="15"/>
+      <c r="H462" s="15"/>
+      <c r="I462" s="15"/>
+      <c r="J462" s="15"/>
+      <c r="K462" s="15"/>
+      <c r="L462" s="15"/>
+      <c r="M462" s="15"/>
+      <c r="N462" s="15"/>
+    </row>
+    <row r="463" spans="3:14">
+      <c r="C463" s="15"/>
+      <c r="D463" s="42" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E463" s="15"/>
+      <c r="F463" s="15"/>
+      <c r="G463" s="15"/>
+      <c r="H463" s="15"/>
+      <c r="I463" s="15"/>
+      <c r="J463" s="15"/>
+      <c r="K463" s="15"/>
+      <c r="L463" s="15"/>
+      <c r="M463" s="15"/>
+      <c r="N463" s="15"/>
+    </row>
+    <row r="464" spans="3:14">
+      <c r="C464" s="15"/>
+      <c r="D464" s="15"/>
+      <c r="E464" s="15"/>
+      <c r="F464" s="15"/>
+      <c r="G464" s="15"/>
+      <c r="H464" s="15"/>
+      <c r="I464" s="15"/>
+      <c r="J464" s="15"/>
+      <c r="K464" s="15"/>
+      <c r="L464" s="15"/>
+      <c r="M464" s="15"/>
+      <c r="N464" s="15"/>
+    </row>
+    <row r="465" spans="3:14">
+      <c r="C465" s="15"/>
+      <c r="D465" s="42" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E465" s="15"/>
+      <c r="F465" s="15"/>
+      <c r="G465" s="15"/>
+      <c r="H465" s="15"/>
+      <c r="I465" s="15"/>
+      <c r="J465" s="15"/>
+      <c r="K465" s="15"/>
+      <c r="L465" s="15"/>
+      <c r="M465" s="15"/>
+      <c r="N465" s="15"/>
+    </row>
+    <row r="466" spans="3:14">
+      <c r="C466" s="15"/>
+      <c r="D466" s="14" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E466" s="15"/>
+      <c r="F466" s="15"/>
+      <c r="G466" s="15"/>
+      <c r="H466" s="15"/>
+      <c r="I466" s="15"/>
+      <c r="J466" s="15"/>
+      <c r="K466" s="15"/>
+      <c r="L466" s="15"/>
+      <c r="M466" s="15"/>
+      <c r="N466" s="15"/>
+    </row>
+    <row r="467" spans="3:14">
+      <c r="C467" s="15"/>
+      <c r="D467" s="15"/>
+      <c r="E467" s="15"/>
+      <c r="F467" s="15"/>
+      <c r="G467" s="15"/>
+      <c r="H467" s="15"/>
+      <c r="I467" s="15"/>
+      <c r="J467" s="15"/>
+      <c r="K467" s="15"/>
+      <c r="L467" s="15"/>
+      <c r="M467" s="15"/>
+      <c r="N467" s="15"/>
+    </row>
+    <row r="468" spans="3:14">
+      <c r="C468" s="15"/>
+      <c r="D468" s="14" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E468" s="15"/>
+      <c r="F468" s="15"/>
+      <c r="G468" s="15"/>
+      <c r="H468" s="15"/>
+      <c r="I468" s="15"/>
+      <c r="J468" s="15"/>
+      <c r="K468" s="15"/>
+      <c r="L468" s="15"/>
+      <c r="M468" s="15"/>
+      <c r="N468" s="15"/>
+    </row>
+    <row r="469" spans="3:14">
+      <c r="C469" s="15"/>
+      <c r="D469" s="42" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E469" s="15"/>
+      <c r="F469" s="15"/>
+      <c r="G469" s="15"/>
+      <c r="H469" s="15"/>
+      <c r="I469" s="15"/>
+      <c r="J469" s="15"/>
+      <c r="K469" s="15"/>
+      <c r="L469" s="15"/>
+      <c r="M469" s="15"/>
+      <c r="N469" s="15"/>
+    </row>
+    <row r="470" spans="3:14">
+      <c r="D470" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="471" spans="3:14">
+      <c r="D471" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="472" spans="3:14">
+      <c r="D472" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="474" spans="3:14">
+      <c r="D474" s="18" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="476" spans="3:14">
+      <c r="D476" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="477" spans="3:14">
+      <c r="D477" s="9" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="479" spans="3:14">
+      <c r="D479" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="480" spans="3:14">
+      <c r="D480" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="481" spans="3:4">
+      <c r="D481" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="482" spans="3:4">
+      <c r="D482" s="9" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="483" spans="3:4">
+      <c r="D483" s="9" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="484" spans="3:4">
+      <c r="D484" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="485" spans="3:4">
+      <c r="D485" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="486" spans="3:4">
+      <c r="D486" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="487" spans="3:4">
+      <c r="D487" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="490" spans="3:4" s="15" customFormat="1"/>
+    <row r="491" spans="3:4" s="15" customFormat="1"/>
+    <row r="492" spans="3:4" s="15" customFormat="1"/>
+    <row r="495" spans="3:4">
+      <c r="C495" s="43" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="498" spans="3:4">
+      <c r="C498" s="7" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="499" spans="3:4">
+      <c r="C499" s="44" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="505" spans="3:4">
+      <c r="C505" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507" spans="3:4">
+      <c r="D507" s="6" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="508" spans="3:4">
+      <c r="D508" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="3:4">
+      <c r="D510" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512" spans="3:4">
+      <c r="D512" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="514" spans="3:7">
+      <c r="D514" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="515" spans="3:7">
+      <c r="D515" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="517" spans="3:7">
+      <c r="D517" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="519" spans="3:7">
+      <c r="D519" s="9" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="520" spans="3:7">
+      <c r="D520" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="522" spans="3:7">
+      <c r="D522" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="523" spans="3:7">
+      <c r="D523" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="524" spans="3:7">
+      <c r="C524" s="15"/>
+      <c r="D524" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E524" s="15"/>
+      <c r="F524" s="15"/>
+      <c r="G524" s="15"/>
+    </row>
+    <row r="526" spans="3:7">
+      <c r="D526" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="528" spans="3:7">
+      <c r="D528" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="530" spans="3:8">
+      <c r="D530" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="531" spans="3:8">
+      <c r="D531" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="533" spans="3:8">
+      <c r="D533" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="535" spans="3:8">
+      <c r="D535" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="537" spans="3:8">
+      <c r="D537" s="9" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="538" spans="3:8">
+      <c r="D538" s="9" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="539" spans="3:8">
+      <c r="C539" s="15"/>
+      <c r="D539" s="14" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E539" s="15"/>
+      <c r="F539" s="15"/>
+      <c r="G539" s="15"/>
+      <c r="H539" s="15"/>
+    </row>
+    <row r="542" spans="3:8">
+      <c r="C542" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="544" spans="3:8">
+      <c r="D544" s="18" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="546" spans="3:10">
+      <c r="D546" s="6" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="547" spans="3:10">
+      <c r="D547" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="548" spans="3:10">
+      <c r="C548" s="15"/>
+      <c r="D548" s="41" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E548" s="15"/>
+      <c r="F548" s="15"/>
+      <c r="G548" s="15"/>
+      <c r="H548" s="15"/>
+      <c r="I548" s="15"/>
+      <c r="J548" s="15"/>
+    </row>
+    <row r="550" spans="3:10">
+      <c r="D550" s="6" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="552" spans="3:10">
+      <c r="D552" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="553" spans="3:10">
+      <c r="D553" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="554" spans="3:10">
+      <c r="D554" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="556" spans="3:10">
+      <c r="D556" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="557" spans="3:10">
+      <c r="D557" s="9" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="559" spans="3:10">
+      <c r="D559" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="560" spans="3:10">
+      <c r="D560" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="561" spans="4:4">
+      <c r="D561" s="9" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="562" spans="4:4">
+      <c r="D562" s="9" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="563" spans="4:4">
+      <c r="D563" s="9" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="564" spans="4:4">
+      <c r="D564" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="565" spans="4:4">
+      <c r="D565" s="9" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="566" spans="4:4">
+      <c r="D566" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="567" spans="4:4">
+      <c r="D567" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="568" spans="4:4">
+      <c r="D568" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="570" spans="4:4">
+      <c r="D570" s="18" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="572" spans="4:4">
+      <c r="D572" s="6" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="573" spans="4:4">
+      <c r="D573" s="9" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="575" spans="4:4">
+      <c r="D575" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="576" spans="4:4">
+      <c r="D576" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="577" spans="3:13">
+      <c r="D577" s="9" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="578" spans="3:13">
+      <c r="C578" s="15"/>
+      <c r="D578" s="14" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E578" s="15"/>
+      <c r="F578" s="15"/>
+      <c r="G578" s="15"/>
+      <c r="H578" s="15"/>
+      <c r="I578" s="15"/>
+      <c r="J578" s="15"/>
+      <c r="K578" s="15"/>
+      <c r="L578" s="15"/>
+      <c r="M578" s="15"/>
+    </row>
+    <row r="580" spans="3:13">
+      <c r="D580" s="9" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="581" spans="3:13">
+      <c r="D581" s="18" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="582" spans="3:13">
+      <c r="D582" s="18" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="583" spans="3:13">
+      <c r="D583" s="18" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="584" spans="3:13">
+      <c r="D584" s="18" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="585" spans="3:13">
+      <c r="D585" s="18" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="586" spans="3:13">
+      <c r="D586" s="18" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="587" spans="3:13">
+      <c r="D587" s="18" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="588" spans="3:13">
+      <c r="D588" s="18" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="589" spans="3:13">
+      <c r="D589" s="18" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="590" spans="3:13">
+      <c r="D590" s="18" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="591" spans="3:13">
+      <c r="D591" s="18" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="592" spans="3:13">
+      <c r="D592" s="18" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="593" spans="4:4">
+      <c r="D593" s="18" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="594" spans="4:4">
+      <c r="D594" s="18" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="595" spans="4:4">
+      <c r="D595" s="18" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="596" spans="4:4">
+      <c r="D596" s="18" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="597" spans="4:4">
+      <c r="D597" s="18" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="598" spans="4:4">
+      <c r="D598" s="18" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="599" spans="4:4">
+      <c r="D599" s="18" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="601" spans="4:4">
+      <c r="D601" s="18" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="602" spans="4:4">
+      <c r="D602" s="9" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="603" spans="4:4">
+      <c r="D603" s="9" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="604" spans="4:4">
+      <c r="D604" s="9" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="606" spans="4:4">
+      <c r="D606" s="9" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="607" spans="4:4">
+      <c r="D607" s="18" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="609" spans="4:4">
+      <c r="D609" s="18" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="610" spans="4:4">
+      <c r="D610" s="9" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="612" spans="4:4">
+      <c r="D612" s="9" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="613" spans="4:4">
+      <c r="D613" s="18" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="614" spans="4:4">
+      <c r="D614" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="615" spans="4:4">
+      <c r="D615" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="616" spans="4:4">
+      <c r="D616" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="618" spans="4:4">
+      <c r="D618" s="18" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="620" spans="4:4">
+      <c r="D620" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="621" spans="4:4">
+      <c r="D621" s="9" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="623" spans="4:4">
+      <c r="D623" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="624" spans="4:4">
+      <c r="D624" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="625" spans="4:4">
+      <c r="D625" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="626" spans="4:4">
+      <c r="D626" s="9" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="627" spans="4:4">
+      <c r="D627" s="9" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="628" spans="4:4">
+      <c r="D628" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="629" spans="4:4">
+      <c r="D629" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="630" spans="4:4">
+      <c r="D630" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="631" spans="4:4">
+      <c r="D631" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="634" spans="4:4" s="15" customFormat="1"/>
+    <row r="635" spans="4:4" s="15" customFormat="1"/>
+    <row r="636" spans="4:4" s="15" customFormat="1"/>
+    <row r="640" spans="4:4">
+      <c r="D640" s="18" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="642" spans="4:4">
+      <c r="D642" s="6" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="643" spans="4:4">
+      <c r="D643" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="644" spans="4:4">
+      <c r="D644" s="6" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="646" spans="4:4">
+      <c r="D646" s="6" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="648" spans="4:4">
+      <c r="D648" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="649" spans="4:4">
+      <c r="D649" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="650" spans="4:4">
+      <c r="D650" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="652" spans="4:4">
+      <c r="D652" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="653" spans="4:4">
+      <c r="D653" s="9" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="655" spans="4:4">
+      <c r="D655" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="656" spans="4:4">
+      <c r="D656" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="657" spans="4:4">
+      <c r="D657" s="9" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="658" spans="4:4">
+      <c r="D658" s="9" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="659" spans="4:4">
+      <c r="D659" s="9" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="660" spans="4:4">
+      <c r="D660" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="661" spans="4:4">
+      <c r="D661" s="9" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="662" spans="4:4">
+      <c r="D662" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="663" spans="4:4">
+      <c r="D663" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="664" spans="4:4">
+      <c r="D664" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="666" spans="4:4">
+      <c r="D666" s="18" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="668" spans="4:4">
+      <c r="D668" s="6" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="669" spans="4:4">
+      <c r="D669" s="9" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="671" spans="4:4">
+      <c r="D671" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="672" spans="4:4">
+      <c r="D672" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="673" spans="4:4">
+      <c r="D673" s="9" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="674" spans="4:4">
+      <c r="D674" s="9" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="676" spans="4:4">
+      <c r="D676" s="9" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="677" spans="4:4">
+      <c r="D677" s="18" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="678" spans="4:4">
+      <c r="D678" s="18" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="679" spans="4:4">
+      <c r="D679" s="18" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="680" spans="4:4">
+      <c r="D680" s="18" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="681" spans="4:4">
+      <c r="D681" s="18" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="682" spans="4:4">
+      <c r="D682" s="18" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="683" spans="4:4">
+      <c r="D683" s="18" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="684" spans="4:4">
+      <c r="D684" s="18" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="685" spans="4:4">
+      <c r="D685" s="18" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="686" spans="4:4">
+      <c r="D686" s="18" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="687" spans="4:4">
+      <c r="D687" s="18" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="688" spans="4:4">
+      <c r="D688" s="18" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="689" spans="4:4">
+      <c r="D689" s="18" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="690" spans="4:4">
+      <c r="D690" s="18" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="691" spans="4:4">
+      <c r="D691" s="18" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="692" spans="4:4">
+      <c r="D692" s="18" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="693" spans="4:4">
+      <c r="D693" s="18" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="694" spans="4:4">
+      <c r="D694" s="18" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="695" spans="4:4">
+      <c r="D695" s="18" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="697" spans="4:4">
+      <c r="D697" s="18" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="698" spans="4:4">
+      <c r="D698" s="9" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="699" spans="4:4">
+      <c r="D699" s="9" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="700" spans="4:4">
+      <c r="D700" s="9" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="702" spans="4:4">
+      <c r="D702" s="9" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="703" spans="4:4">
+      <c r="D703" s="18" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="705" spans="3:12">
+      <c r="D705" s="18" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="706" spans="3:12">
+      <c r="D706" s="18" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="708" spans="3:12">
+      <c r="D708" s="9" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="710" spans="3:12">
+      <c r="C710" s="15"/>
+      <c r="D710" s="42" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E710" s="15"/>
+      <c r="F710" s="15"/>
+      <c r="G710" s="15"/>
+      <c r="H710" s="15"/>
+      <c r="I710" s="15"/>
+      <c r="J710" s="15"/>
+      <c r="K710" s="15"/>
+      <c r="L710" s="15"/>
+    </row>
+    <row r="712" spans="3:12">
+      <c r="D712" s="9" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="713" spans="3:12">
+      <c r="D713" s="18" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="714" spans="3:12">
+      <c r="D714" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="715" spans="3:12">
+      <c r="D715" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="716" spans="3:12">
+      <c r="D716" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="718" spans="3:12">
+      <c r="D718" s="18" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="720" spans="3:12">
+      <c r="D720" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="721" spans="4:4">
+      <c r="D721" s="9" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="723" spans="4:4">
+      <c r="D723" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="724" spans="4:4">
+      <c r="D724" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="725" spans="4:4">
+      <c r="D725" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="726" spans="4:4">
+      <c r="D726" s="9" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="727" spans="4:4">
+      <c r="D727" s="9" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="728" spans="4:4">
+      <c r="D728" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="729" spans="4:4">
+      <c r="D729" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="730" spans="4:4">
+      <c r="D730" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="731" spans="4:4">
+      <c r="D731" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C499" r:id="rId1" xr:uid="{7A4AADBE-9BF6-8446-935E-CAEEB1307C5D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B814BDDF-79D9-A045-81D3-1E8EC96C0A8A}">
+  <dimension ref="C1:X127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="24"/>
+  <cols>
+    <col min="1" max="16384" width="6.7109375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="7" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="39" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="39" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22">
+      <c r="C17" s="40" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="3:22">
+      <c r="C18" s="39" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22">
+      <c r="C19" s="39" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22">
+      <c r="C20" s="40" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="3:22">
+      <c r="C21" s="39" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22">
+      <c r="C22" s="39" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22">
+      <c r="C23" s="39" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22">
+      <c r="C24" s="39" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22">
+      <c r="C25" s="40" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="27" spans="3:22">
+      <c r="C27" s="39" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22">
+      <c r="C28" s="39"/>
+    </row>
+    <row r="29" spans="3:22">
+      <c r="C29" s="39"/>
+      <c r="K29" s="43" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22">
+      <c r="C30" s="39" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+    </row>
+    <row r="33" spans="3:24" ht="25" thickBot="1">
+      <c r="C33" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24">
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="4"/>
+    </row>
+    <row r="35" spans="3:24">
+      <c r="C35" s="5"/>
+      <c r="D35" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="46"/>
+      <c r="X35" s="8"/>
+    </row>
+    <row r="36" spans="3:24">
+      <c r="C36" s="5"/>
+      <c r="D36" s="45" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="8"/>
+    </row>
+    <row r="37" spans="3:24">
+      <c r="C37" s="5"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="8"/>
+    </row>
+    <row r="38" spans="3:24">
+      <c r="C38" s="5"/>
+      <c r="D38" s="45" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="8"/>
+    </row>
+    <row r="39" spans="3:24">
+      <c r="C39" s="5"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="8"/>
+    </row>
+    <row r="40" spans="3:24">
+      <c r="C40" s="5"/>
+      <c r="D40" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="8"/>
+    </row>
+    <row r="41" spans="3:24">
+      <c r="C41" s="5"/>
+      <c r="D41" s="47" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="8"/>
+    </row>
+    <row r="42" spans="3:24">
+      <c r="C42" s="5"/>
+      <c r="D42" s="47" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="8"/>
+    </row>
+    <row r="43" spans="3:24">
+      <c r="C43" s="5"/>
+      <c r="D43" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="8"/>
+    </row>
+    <row r="44" spans="3:24">
+      <c r="C44" s="5"/>
+      <c r="D44" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="8"/>
+    </row>
+    <row r="45" spans="3:24">
+      <c r="C45" s="5"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="8"/>
+    </row>
+    <row r="46" spans="3:24">
+      <c r="C46" s="5"/>
+      <c r="D46" s="45" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="8"/>
+    </row>
+    <row r="47" spans="3:24">
+      <c r="C47" s="5"/>
+      <c r="D47" s="47" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="8"/>
+    </row>
+    <row r="48" spans="3:24">
+      <c r="C48" s="5"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="8"/>
+    </row>
+    <row r="49" spans="3:24">
+      <c r="C49" s="5"/>
+      <c r="D49" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="8"/>
+    </row>
+    <row r="50" spans="3:24">
+      <c r="C50" s="5"/>
+      <c r="D50" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="8"/>
+    </row>
+    <row r="51" spans="3:24">
+      <c r="C51" s="5"/>
+      <c r="D51" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="8"/>
+    </row>
+    <row r="52" spans="3:24">
+      <c r="C52" s="5"/>
+      <c r="D52" s="47" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="8"/>
+    </row>
+    <row r="53" spans="3:24">
+      <c r="C53" s="5"/>
+      <c r="D53" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="46"/>
+      <c r="R53" s="46"/>
+      <c r="S53" s="46"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="8"/>
+    </row>
+    <row r="54" spans="3:24">
+      <c r="C54" s="5"/>
+      <c r="D54" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="8"/>
+    </row>
+    <row r="55" spans="3:24">
+      <c r="C55" s="5"/>
+      <c r="D55" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="46"/>
+      <c r="R55" s="46"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="8"/>
+    </row>
+    <row r="56" spans="3:24" ht="25" thickBot="1">
+      <c r="C56" s="10"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="12"/>
+    </row>
+    <row r="59" spans="3:24" ht="25" thickBot="1">
+      <c r="C59" s="7" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24">
+      <c r="C60" s="2"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="4"/>
+    </row>
+    <row r="61" spans="3:24">
+      <c r="C61" s="5"/>
+      <c r="D61" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="46"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="8"/>
+    </row>
+    <row r="62" spans="3:24">
+      <c r="C62" s="5"/>
+      <c r="D62" s="45" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="46"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="46"/>
+      <c r="R62" s="46"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="46"/>
+      <c r="V62" s="46"/>
+      <c r="W62" s="46"/>
+      <c r="X62" s="8"/>
+    </row>
+    <row r="63" spans="3:24">
+      <c r="C63" s="5"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="46"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="46"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="46"/>
+      <c r="X63" s="8"/>
+    </row>
+    <row r="64" spans="3:24">
+      <c r="C64" s="5"/>
+      <c r="D64" s="45" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
+      <c r="R64" s="46"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="46"/>
+      <c r="V64" s="46"/>
+      <c r="W64" s="46"/>
+      <c r="X64" s="8"/>
+    </row>
+    <row r="65" spans="3:24">
+      <c r="C65" s="5"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="46"/>
+      <c r="R65" s="46"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="46"/>
+      <c r="V65" s="46"/>
+      <c r="W65" s="46"/>
+      <c r="X65" s="8"/>
+    </row>
+    <row r="66" spans="3:24">
+      <c r="C66" s="5"/>
+      <c r="D66" s="45" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="46"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="46"/>
+      <c r="R66" s="46"/>
+      <c r="S66" s="46"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="46"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="46"/>
+      <c r="X66" s="8"/>
+    </row>
+    <row r="67" spans="3:24">
+      <c r="C67" s="5"/>
+      <c r="D67" s="47" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="46"/>
+      <c r="R67" s="46"/>
+      <c r="S67" s="46"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="46"/>
+      <c r="V67" s="46"/>
+      <c r="W67" s="46"/>
+      <c r="X67" s="8"/>
+    </row>
+    <row r="68" spans="3:24">
+      <c r="C68" s="5"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="46"/>
+      <c r="P68" s="46"/>
+      <c r="Q68" s="46"/>
+      <c r="R68" s="46"/>
+      <c r="S68" s="46"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="46"/>
+      <c r="V68" s="46"/>
+      <c r="W68" s="46"/>
+      <c r="X68" s="8"/>
+    </row>
+    <row r="69" spans="3:24">
+      <c r="C69" s="5"/>
+      <c r="D69" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="46"/>
+      <c r="O69" s="46"/>
+      <c r="P69" s="46"/>
+      <c r="Q69" s="46"/>
+      <c r="R69" s="46"/>
+      <c r="S69" s="46"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="46"/>
+      <c r="V69" s="46"/>
+      <c r="W69" s="46"/>
+      <c r="X69" s="8"/>
+    </row>
+    <row r="70" spans="3:24">
+      <c r="C70" s="5"/>
+      <c r="D70" s="48" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="46"/>
+      <c r="P70" s="46"/>
+      <c r="Q70" s="46"/>
+      <c r="R70" s="46"/>
+      <c r="S70" s="46"/>
+      <c r="T70" s="46"/>
+      <c r="U70" s="46"/>
+      <c r="V70" s="46"/>
+      <c r="W70" s="46"/>
+      <c r="X70" s="8"/>
+    </row>
+    <row r="71" spans="3:24">
+      <c r="C71" s="5"/>
+      <c r="D71" s="47" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="46"/>
+      <c r="O71" s="46"/>
+      <c r="P71" s="46"/>
+      <c r="Q71" s="46"/>
+      <c r="R71" s="46"/>
+      <c r="S71" s="46"/>
+      <c r="T71" s="46"/>
+      <c r="U71" s="46"/>
+      <c r="V71" s="46"/>
+      <c r="W71" s="46"/>
+      <c r="X71" s="8"/>
+    </row>
+    <row r="72" spans="3:24">
+      <c r="C72" s="5"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="46"/>
+      <c r="O72" s="46"/>
+      <c r="P72" s="46"/>
+      <c r="Q72" s="46"/>
+      <c r="R72" s="46"/>
+      <c r="S72" s="46"/>
+      <c r="T72" s="46"/>
+      <c r="U72" s="46"/>
+      <c r="V72" s="46"/>
+      <c r="W72" s="46"/>
+      <c r="X72" s="8"/>
+    </row>
+    <row r="73" spans="3:24">
+      <c r="C73" s="5"/>
+      <c r="D73" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="46"/>
+      <c r="P73" s="46"/>
+      <c r="Q73" s="46"/>
+      <c r="R73" s="46"/>
+      <c r="S73" s="46"/>
+      <c r="T73" s="46"/>
+      <c r="U73" s="46"/>
+      <c r="V73" s="46"/>
+      <c r="W73" s="46"/>
+      <c r="X73" s="8"/>
+    </row>
+    <row r="74" spans="3:24">
+      <c r="C74" s="5"/>
+      <c r="D74" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="46"/>
+      <c r="P74" s="46"/>
+      <c r="Q74" s="46"/>
+      <c r="R74" s="46"/>
+      <c r="S74" s="46"/>
+      <c r="T74" s="46"/>
+      <c r="U74" s="46"/>
+      <c r="V74" s="46"/>
+      <c r="W74" s="46"/>
+      <c r="X74" s="8"/>
+    </row>
+    <row r="75" spans="3:24">
+      <c r="C75" s="5"/>
+      <c r="D75" s="47" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
+      <c r="P75" s="46"/>
+      <c r="Q75" s="46"/>
+      <c r="R75" s="46"/>
+      <c r="S75" s="46"/>
+      <c r="T75" s="46"/>
+      <c r="U75" s="46"/>
+      <c r="V75" s="46"/>
+      <c r="W75" s="46"/>
+      <c r="X75" s="8"/>
+    </row>
+    <row r="76" spans="3:24">
+      <c r="C76" s="5"/>
+      <c r="D76" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="46"/>
+      <c r="O76" s="46"/>
+      <c r="P76" s="46"/>
+      <c r="Q76" s="46"/>
+      <c r="R76" s="46"/>
+      <c r="S76" s="46"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="46"/>
+      <c r="V76" s="46"/>
+      <c r="W76" s="46"/>
+      <c r="X76" s="8"/>
+    </row>
+    <row r="77" spans="3:24">
+      <c r="C77" s="5"/>
+      <c r="D77" s="47" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="46"/>
+      <c r="M77" s="46"/>
+      <c r="N77" s="46"/>
+      <c r="O77" s="46"/>
+      <c r="P77" s="46"/>
+      <c r="Q77" s="46"/>
+      <c r="R77" s="46"/>
+      <c r="S77" s="46"/>
+      <c r="T77" s="46"/>
+      <c r="U77" s="46"/>
+      <c r="V77" s="46"/>
+      <c r="W77" s="46"/>
+      <c r="X77" s="8"/>
+    </row>
+    <row r="78" spans="3:24">
+      <c r="C78" s="5"/>
+      <c r="D78" s="47" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="46"/>
+      <c r="N78" s="46"/>
+      <c r="O78" s="46"/>
+      <c r="P78" s="46"/>
+      <c r="Q78" s="46"/>
+      <c r="R78" s="46"/>
+      <c r="S78" s="46"/>
+      <c r="T78" s="46"/>
+      <c r="U78" s="46"/>
+      <c r="V78" s="46"/>
+      <c r="W78" s="46"/>
+      <c r="X78" s="8"/>
+    </row>
+    <row r="79" spans="3:24">
+      <c r="C79" s="5"/>
+      <c r="D79" s="47" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="46"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="46"/>
+      <c r="M79" s="46"/>
+      <c r="N79" s="46"/>
+      <c r="O79" s="46"/>
+      <c r="P79" s="46"/>
+      <c r="Q79" s="46"/>
+      <c r="R79" s="46"/>
+      <c r="S79" s="46"/>
+      <c r="T79" s="46"/>
+      <c r="U79" s="46"/>
+      <c r="V79" s="46"/>
+      <c r="W79" s="46"/>
+      <c r="X79" s="8"/>
+    </row>
+    <row r="80" spans="3:24">
+      <c r="C80" s="5"/>
+      <c r="D80" s="47" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E80" s="46"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="46"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="46"/>
+      <c r="M80" s="46"/>
+      <c r="N80" s="46"/>
+      <c r="O80" s="46"/>
+      <c r="P80" s="46"/>
+      <c r="Q80" s="46"/>
+      <c r="R80" s="46"/>
+      <c r="S80" s="46"/>
+      <c r="T80" s="46"/>
+      <c r="U80" s="46"/>
+      <c r="V80" s="46"/>
+      <c r="W80" s="46"/>
+      <c r="X80" s="8"/>
+    </row>
+    <row r="81" spans="3:24">
+      <c r="C81" s="5"/>
+      <c r="D81" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="46"/>
+      <c r="M81" s="46"/>
+      <c r="N81" s="46"/>
+      <c r="O81" s="46"/>
+      <c r="P81" s="46"/>
+      <c r="Q81" s="46"/>
+      <c r="R81" s="46"/>
+      <c r="S81" s="46"/>
+      <c r="T81" s="46"/>
+      <c r="U81" s="46"/>
+      <c r="V81" s="46"/>
+      <c r="W81" s="46"/>
+      <c r="X81" s="8"/>
+    </row>
+    <row r="82" spans="3:24">
+      <c r="C82" s="5"/>
+      <c r="D82" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="46"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="46"/>
+      <c r="M82" s="46"/>
+      <c r="N82" s="46"/>
+      <c r="O82" s="46"/>
+      <c r="P82" s="46"/>
+      <c r="Q82" s="46"/>
+      <c r="R82" s="46"/>
+      <c r="S82" s="46"/>
+      <c r="T82" s="46"/>
+      <c r="U82" s="46"/>
+      <c r="V82" s="46"/>
+      <c r="W82" s="46"/>
+      <c r="X82" s="8"/>
+    </row>
+    <row r="83" spans="3:24">
+      <c r="C83" s="5"/>
+      <c r="D83" s="47" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="46"/>
+      <c r="K83" s="46"/>
+      <c r="L83" s="46"/>
+      <c r="M83" s="46"/>
+      <c r="N83" s="46"/>
+      <c r="O83" s="46"/>
+      <c r="P83" s="46"/>
+      <c r="Q83" s="46"/>
+      <c r="R83" s="46"/>
+      <c r="S83" s="46"/>
+      <c r="T83" s="46"/>
+      <c r="U83" s="46"/>
+      <c r="V83" s="46"/>
+      <c r="W83" s="46"/>
+      <c r="X83" s="8"/>
+    </row>
+    <row r="84" spans="3:24">
+      <c r="C84" s="5"/>
+      <c r="D84" s="47" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="46"/>
+      <c r="K84" s="46"/>
+      <c r="L84" s="46"/>
+      <c r="M84" s="46"/>
+      <c r="N84" s="46"/>
+      <c r="O84" s="46"/>
+      <c r="P84" s="46"/>
+      <c r="Q84" s="46"/>
+      <c r="R84" s="46"/>
+      <c r="S84" s="46"/>
+      <c r="T84" s="46"/>
+      <c r="U84" s="46"/>
+      <c r="V84" s="46"/>
+      <c r="W84" s="46"/>
+      <c r="X84" s="8"/>
+    </row>
+    <row r="85" spans="3:24">
+      <c r="C85" s="5"/>
+      <c r="D85" s="47" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="46"/>
+      <c r="K85" s="46"/>
+      <c r="L85" s="46"/>
+      <c r="M85" s="46"/>
+      <c r="N85" s="46"/>
+      <c r="O85" s="46"/>
+      <c r="P85" s="46"/>
+      <c r="Q85" s="46"/>
+      <c r="R85" s="46"/>
+      <c r="S85" s="46"/>
+      <c r="T85" s="46"/>
+      <c r="U85" s="46"/>
+      <c r="V85" s="46"/>
+      <c r="W85" s="46"/>
+      <c r="X85" s="8"/>
+    </row>
+    <row r="86" spans="3:24">
+      <c r="C86" s="5"/>
+      <c r="D86" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="46"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="46"/>
+      <c r="M86" s="46"/>
+      <c r="N86" s="46"/>
+      <c r="O86" s="46"/>
+      <c r="P86" s="46"/>
+      <c r="Q86" s="46"/>
+      <c r="R86" s="46"/>
+      <c r="S86" s="46"/>
+      <c r="T86" s="46"/>
+      <c r="U86" s="46"/>
+      <c r="V86" s="46"/>
+      <c r="W86" s="46"/>
+      <c r="X86" s="8"/>
+    </row>
+    <row r="87" spans="3:24">
+      <c r="C87" s="5"/>
+      <c r="D87" s="47" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="46"/>
+      <c r="K87" s="46"/>
+      <c r="L87" s="46"/>
+      <c r="M87" s="46"/>
+      <c r="N87" s="46"/>
+      <c r="O87" s="46"/>
+      <c r="P87" s="46"/>
+      <c r="Q87" s="46"/>
+      <c r="R87" s="46"/>
+      <c r="S87" s="46"/>
+      <c r="T87" s="46"/>
+      <c r="U87" s="46"/>
+      <c r="V87" s="46"/>
+      <c r="W87" s="46"/>
+      <c r="X87" s="8"/>
+    </row>
+    <row r="88" spans="3:24">
+      <c r="C88" s="5"/>
+      <c r="D88" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88" s="46"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="46"/>
+      <c r="M88" s="46"/>
+      <c r="N88" s="46"/>
+      <c r="O88" s="46"/>
+      <c r="P88" s="46"/>
+      <c r="Q88" s="46"/>
+      <c r="R88" s="46"/>
+      <c r="S88" s="46"/>
+      <c r="T88" s="46"/>
+      <c r="U88" s="46"/>
+      <c r="V88" s="46"/>
+      <c r="W88" s="46"/>
+      <c r="X88" s="8"/>
+    </row>
+    <row r="89" spans="3:24">
+      <c r="C89" s="5"/>
+      <c r="D89" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="46"/>
+      <c r="K89" s="46"/>
+      <c r="L89" s="46"/>
+      <c r="M89" s="46"/>
+      <c r="N89" s="46"/>
+      <c r="O89" s="46"/>
+      <c r="P89" s="46"/>
+      <c r="Q89" s="46"/>
+      <c r="R89" s="46"/>
+      <c r="S89" s="46"/>
+      <c r="T89" s="46"/>
+      <c r="U89" s="46"/>
+      <c r="V89" s="46"/>
+      <c r="W89" s="46"/>
+      <c r="X89" s="8"/>
+    </row>
+    <row r="90" spans="3:24">
+      <c r="C90" s="5"/>
+      <c r="D90" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="46"/>
+      <c r="K90" s="46"/>
+      <c r="L90" s="46"/>
+      <c r="M90" s="46"/>
+      <c r="N90" s="46"/>
+      <c r="O90" s="46"/>
+      <c r="P90" s="46"/>
+      <c r="Q90" s="46"/>
+      <c r="R90" s="46"/>
+      <c r="S90" s="46"/>
+      <c r="T90" s="46"/>
+      <c r="U90" s="46"/>
+      <c r="V90" s="46"/>
+      <c r="W90" s="46"/>
+      <c r="X90" s="8"/>
+    </row>
+    <row r="91" spans="3:24">
+      <c r="C91" s="5"/>
+      <c r="D91" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="46"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="46"/>
+      <c r="K91" s="46"/>
+      <c r="L91" s="46"/>
+      <c r="M91" s="46"/>
+      <c r="N91" s="46"/>
+      <c r="O91" s="46"/>
+      <c r="P91" s="46"/>
+      <c r="Q91" s="46"/>
+      <c r="R91" s="46"/>
+      <c r="S91" s="46"/>
+      <c r="T91" s="46"/>
+      <c r="U91" s="46"/>
+      <c r="V91" s="46"/>
+      <c r="W91" s="46"/>
+      <c r="X91" s="8"/>
+    </row>
+    <row r="92" spans="3:24" ht="25" thickBot="1">
+      <c r="C92" s="10"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="11"/>
+      <c r="V92" s="11"/>
+      <c r="W92" s="11"/>
+      <c r="X92" s="12"/>
+    </row>
+    <row r="95" spans="3:24" ht="25" thickBot="1">
+      <c r="C95" s="7" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="96" spans="3:24">
+      <c r="C96" s="2"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="4"/>
+    </row>
+    <row r="97" spans="3:24">
+      <c r="C97" s="5"/>
+      <c r="D97" s="45" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E97" s="46"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="46"/>
+      <c r="K97" s="46"/>
+      <c r="L97" s="46"/>
+      <c r="M97" s="46"/>
+      <c r="N97" s="46"/>
+      <c r="O97" s="46"/>
+      <c r="P97" s="46"/>
+      <c r="Q97" s="46"/>
+      <c r="R97" s="46"/>
+      <c r="S97" s="46"/>
+      <c r="T97" s="46"/>
+      <c r="U97" s="46"/>
+      <c r="V97" s="46"/>
+      <c r="W97" s="46"/>
+      <c r="X97" s="8"/>
+    </row>
+    <row r="98" spans="3:24">
+      <c r="C98" s="5"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="46"/>
+      <c r="J98" s="46"/>
+      <c r="K98" s="46"/>
+      <c r="L98" s="46"/>
+      <c r="M98" s="46"/>
+      <c r="N98" s="46"/>
+      <c r="O98" s="46"/>
+      <c r="P98" s="46"/>
+      <c r="Q98" s="46"/>
+      <c r="R98" s="46"/>
+      <c r="S98" s="46"/>
+      <c r="T98" s="46"/>
+      <c r="U98" s="46"/>
+      <c r="V98" s="46"/>
+      <c r="W98" s="46"/>
+      <c r="X98" s="8"/>
+    </row>
+    <row r="99" spans="3:24">
+      <c r="C99" s="5"/>
+      <c r="D99" s="45" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E99" s="46"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="46"/>
+      <c r="K99" s="46"/>
+      <c r="L99" s="46"/>
+      <c r="M99" s="46"/>
+      <c r="N99" s="46"/>
+      <c r="O99" s="46"/>
+      <c r="P99" s="46"/>
+      <c r="Q99" s="46"/>
+      <c r="R99" s="46"/>
+      <c r="S99" s="46"/>
+      <c r="T99" s="46"/>
+      <c r="U99" s="46"/>
+      <c r="V99" s="46"/>
+      <c r="W99" s="46"/>
+      <c r="X99" s="8"/>
+    </row>
+    <row r="100" spans="3:24">
+      <c r="C100" s="5"/>
+      <c r="D100" s="46"/>
+      <c r="E100" s="46"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="46"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="46"/>
+      <c r="J100" s="46"/>
+      <c r="K100" s="46"/>
+      <c r="L100" s="46"/>
+      <c r="M100" s="46"/>
+      <c r="N100" s="46"/>
+      <c r="O100" s="46"/>
+      <c r="P100" s="46"/>
+      <c r="Q100" s="46"/>
+      <c r="R100" s="46"/>
+      <c r="S100" s="46"/>
+      <c r="T100" s="46"/>
+      <c r="U100" s="46"/>
+      <c r="V100" s="46"/>
+      <c r="W100" s="46"/>
+      <c r="X100" s="8"/>
+    </row>
+    <row r="101" spans="3:24">
+      <c r="C101" s="5"/>
+      <c r="D101" s="45" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E101" s="46"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="46"/>
+      <c r="J101" s="46"/>
+      <c r="K101" s="46"/>
+      <c r="L101" s="46"/>
+      <c r="M101" s="46"/>
+      <c r="N101" s="46"/>
+      <c r="O101" s="46"/>
+      <c r="P101" s="46"/>
+      <c r="Q101" s="46"/>
+      <c r="R101" s="46"/>
+      <c r="S101" s="46"/>
+      <c r="T101" s="46"/>
+      <c r="U101" s="46"/>
+      <c r="V101" s="46"/>
+      <c r="W101" s="46"/>
+      <c r="X101" s="8"/>
+    </row>
+    <row r="102" spans="3:24">
+      <c r="C102" s="5"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="46"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="46"/>
+      <c r="J102" s="46"/>
+      <c r="K102" s="46"/>
+      <c r="L102" s="46"/>
+      <c r="M102" s="46"/>
+      <c r="N102" s="46"/>
+      <c r="O102" s="46"/>
+      <c r="P102" s="46"/>
+      <c r="Q102" s="46"/>
+      <c r="R102" s="46"/>
+      <c r="S102" s="46"/>
+      <c r="T102" s="46"/>
+      <c r="U102" s="46"/>
+      <c r="V102" s="46"/>
+      <c r="W102" s="46"/>
+      <c r="X102" s="8"/>
+    </row>
+    <row r="103" spans="3:24">
+      <c r="C103" s="5"/>
+      <c r="D103" s="49" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E103" s="46"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="46"/>
+      <c r="K103" s="46"/>
+      <c r="L103" s="46"/>
+      <c r="M103" s="46"/>
+      <c r="N103" s="46"/>
+      <c r="O103" s="46"/>
+      <c r="P103" s="46"/>
+      <c r="Q103" s="46"/>
+      <c r="R103" s="46"/>
+      <c r="S103" s="46"/>
+      <c r="T103" s="46"/>
+      <c r="U103" s="46"/>
+      <c r="V103" s="46"/>
+      <c r="W103" s="46"/>
+      <c r="X103" s="8"/>
+    </row>
+    <row r="104" spans="3:24">
+      <c r="C104" s="5"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="46"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="46"/>
+      <c r="J104" s="46"/>
+      <c r="K104" s="46"/>
+      <c r="L104" s="46"/>
+      <c r="M104" s="46"/>
+      <c r="N104" s="46"/>
+      <c r="O104" s="46"/>
+      <c r="P104" s="46"/>
+      <c r="Q104" s="46"/>
+      <c r="R104" s="46"/>
+      <c r="S104" s="46"/>
+      <c r="T104" s="46"/>
+      <c r="U104" s="46"/>
+      <c r="V104" s="46"/>
+      <c r="W104" s="46"/>
+      <c r="X104" s="8"/>
+    </row>
+    <row r="105" spans="3:24">
+      <c r="C105" s="5"/>
+      <c r="D105" s="48" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E105" s="46"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="46"/>
+      <c r="J105" s="46"/>
+      <c r="K105" s="46"/>
+      <c r="L105" s="46"/>
+      <c r="M105" s="46"/>
+      <c r="N105" s="46"/>
+      <c r="O105" s="46"/>
+      <c r="P105" s="46"/>
+      <c r="Q105" s="46"/>
+      <c r="R105" s="46"/>
+      <c r="S105" s="46"/>
+      <c r="T105" s="46"/>
+      <c r="U105" s="46"/>
+      <c r="V105" s="46"/>
+      <c r="W105" s="46"/>
+      <c r="X105" s="8"/>
+    </row>
+    <row r="106" spans="3:24">
+      <c r="C106" s="5"/>
+      <c r="D106" s="45" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E106" s="46"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="46"/>
+      <c r="J106" s="46"/>
+      <c r="K106" s="46"/>
+      <c r="L106" s="46"/>
+      <c r="M106" s="46"/>
+      <c r="N106" s="46"/>
+      <c r="O106" s="46"/>
+      <c r="P106" s="46"/>
+      <c r="Q106" s="46"/>
+      <c r="R106" s="46"/>
+      <c r="S106" s="46"/>
+      <c r="T106" s="46"/>
+      <c r="U106" s="46"/>
+      <c r="V106" s="46"/>
+      <c r="W106" s="46"/>
+      <c r="X106" s="8"/>
+    </row>
+    <row r="107" spans="3:24">
+      <c r="C107" s="5"/>
+      <c r="D107" s="47" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E107" s="46"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="46"/>
+      <c r="J107" s="46"/>
+      <c r="K107" s="46"/>
+      <c r="L107" s="46"/>
+      <c r="M107" s="46"/>
+      <c r="N107" s="46"/>
+      <c r="O107" s="46"/>
+      <c r="P107" s="46"/>
+      <c r="Q107" s="46"/>
+      <c r="R107" s="46"/>
+      <c r="S107" s="46"/>
+      <c r="T107" s="46"/>
+      <c r="U107" s="46"/>
+      <c r="V107" s="46"/>
+      <c r="W107" s="46"/>
+      <c r="X107" s="8"/>
+    </row>
+    <row r="108" spans="3:24">
+      <c r="C108" s="5"/>
+      <c r="D108" s="47" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E108" s="46"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="46"/>
+      <c r="J108" s="46"/>
+      <c r="K108" s="46"/>
+      <c r="L108" s="46"/>
+      <c r="M108" s="46"/>
+      <c r="N108" s="46"/>
+      <c r="O108" s="46"/>
+      <c r="P108" s="46"/>
+      <c r="Q108" s="46"/>
+      <c r="R108" s="46"/>
+      <c r="S108" s="46"/>
+      <c r="T108" s="46"/>
+      <c r="U108" s="46"/>
+      <c r="V108" s="46"/>
+      <c r="W108" s="46"/>
+      <c r="X108" s="8"/>
+    </row>
+    <row r="109" spans="3:24">
+      <c r="C109" s="5"/>
+      <c r="D109" s="50" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E109" s="46"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="46"/>
+      <c r="J109" s="46"/>
+      <c r="K109" s="46"/>
+      <c r="L109" s="46"/>
+      <c r="M109" s="46"/>
+      <c r="N109" s="46"/>
+      <c r="O109" s="46"/>
+      <c r="P109" s="46"/>
+      <c r="Q109" s="46"/>
+      <c r="R109" s="46"/>
+      <c r="S109" s="46"/>
+      <c r="T109" s="46"/>
+      <c r="U109" s="46"/>
+      <c r="V109" s="46"/>
+      <c r="W109" s="46"/>
+      <c r="X109" s="8"/>
+    </row>
+    <row r="110" spans="3:24">
+      <c r="C110" s="5"/>
+      <c r="D110" s="47" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E110" s="46"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="46"/>
+      <c r="J110" s="46"/>
+      <c r="K110" s="46"/>
+      <c r="L110" s="46"/>
+      <c r="M110" s="46"/>
+      <c r="N110" s="46"/>
+      <c r="O110" s="46"/>
+      <c r="P110" s="46"/>
+      <c r="Q110" s="46"/>
+      <c r="R110" s="46"/>
+      <c r="S110" s="46"/>
+      <c r="T110" s="46"/>
+      <c r="U110" s="46"/>
+      <c r="V110" s="46"/>
+      <c r="W110" s="46"/>
+      <c r="X110" s="8"/>
+    </row>
+    <row r="111" spans="3:24">
+      <c r="C111" s="5"/>
+      <c r="D111" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" s="46"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="46"/>
+      <c r="J111" s="46"/>
+      <c r="K111" s="46"/>
+      <c r="L111" s="46"/>
+      <c r="M111" s="46"/>
+      <c r="N111" s="46"/>
+      <c r="O111" s="46"/>
+      <c r="P111" s="46"/>
+      <c r="Q111" s="46"/>
+      <c r="R111" s="46"/>
+      <c r="S111" s="46"/>
+      <c r="T111" s="46"/>
+      <c r="U111" s="46"/>
+      <c r="V111" s="46"/>
+      <c r="W111" s="46"/>
+      <c r="X111" s="8"/>
+    </row>
+    <row r="112" spans="3:24">
+      <c r="C112" s="5"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="46"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="46"/>
+      <c r="H112" s="46"/>
+      <c r="I112" s="46"/>
+      <c r="J112" s="46"/>
+      <c r="K112" s="46"/>
+      <c r="L112" s="46"/>
+      <c r="M112" s="46"/>
+      <c r="N112" s="46"/>
+      <c r="O112" s="46"/>
+      <c r="P112" s="46"/>
+      <c r="Q112" s="46"/>
+      <c r="R112" s="46"/>
+      <c r="S112" s="46"/>
+      <c r="T112" s="46"/>
+      <c r="U112" s="46"/>
+      <c r="V112" s="46"/>
+      <c r="W112" s="46"/>
+      <c r="X112" s="8"/>
+    </row>
+    <row r="113" spans="3:24">
+      <c r="C113" s="5"/>
+      <c r="D113" s="49" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E113" s="46"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="46"/>
+      <c r="J113" s="46"/>
+      <c r="K113" s="46"/>
+      <c r="L113" s="46"/>
+      <c r="M113" s="46"/>
+      <c r="N113" s="46"/>
+      <c r="O113" s="46"/>
+      <c r="P113" s="46"/>
+      <c r="Q113" s="46"/>
+      <c r="R113" s="46"/>
+      <c r="S113" s="46"/>
+      <c r="T113" s="46"/>
+      <c r="U113" s="46"/>
+      <c r="V113" s="46"/>
+      <c r="W113" s="46"/>
+      <c r="X113" s="8"/>
+    </row>
+    <row r="114" spans="3:24">
+      <c r="C114" s="5"/>
+      <c r="D114" s="46"/>
+      <c r="E114" s="46"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="46"/>
+      <c r="H114" s="46"/>
+      <c r="I114" s="46"/>
+      <c r="J114" s="46"/>
+      <c r="K114" s="46"/>
+      <c r="L114" s="46"/>
+      <c r="M114" s="46"/>
+      <c r="N114" s="46"/>
+      <c r="O114" s="46"/>
+      <c r="P114" s="46"/>
+      <c r="Q114" s="46"/>
+      <c r="R114" s="46"/>
+      <c r="S114" s="46"/>
+      <c r="T114" s="46"/>
+      <c r="U114" s="46"/>
+      <c r="V114" s="46"/>
+      <c r="W114" s="46"/>
+      <c r="X114" s="8"/>
+    </row>
+    <row r="115" spans="3:24">
+      <c r="C115" s="5"/>
+      <c r="D115" s="45" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E115" s="46"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="46"/>
+      <c r="H115" s="46"/>
+      <c r="I115" s="46"/>
+      <c r="J115" s="46"/>
+      <c r="K115" s="46"/>
+      <c r="L115" s="46"/>
+      <c r="M115" s="46"/>
+      <c r="N115" s="46"/>
+      <c r="O115" s="46"/>
+      <c r="P115" s="46"/>
+      <c r="Q115" s="46"/>
+      <c r="R115" s="46"/>
+      <c r="S115" s="46"/>
+      <c r="T115" s="46"/>
+      <c r="U115" s="46"/>
+      <c r="V115" s="46"/>
+      <c r="W115" s="46"/>
+      <c r="X115" s="8"/>
+    </row>
+    <row r="116" spans="3:24">
+      <c r="C116" s="5"/>
+      <c r="D116" s="47" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E116" s="46"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="46"/>
+      <c r="I116" s="46"/>
+      <c r="J116" s="46"/>
+      <c r="K116" s="46"/>
+      <c r="L116" s="46"/>
+      <c r="M116" s="46"/>
+      <c r="N116" s="46"/>
+      <c r="O116" s="46"/>
+      <c r="P116" s="46"/>
+      <c r="Q116" s="46"/>
+      <c r="R116" s="46"/>
+      <c r="S116" s="46"/>
+      <c r="T116" s="46"/>
+      <c r="U116" s="46"/>
+      <c r="V116" s="46"/>
+      <c r="W116" s="46"/>
+      <c r="X116" s="8"/>
+    </row>
+    <row r="117" spans="3:24">
+      <c r="C117" s="5"/>
+      <c r="D117" s="47" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E117" s="46"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="46"/>
+      <c r="I117" s="46"/>
+      <c r="J117" s="46"/>
+      <c r="K117" s="46"/>
+      <c r="L117" s="46"/>
+      <c r="M117" s="46"/>
+      <c r="N117" s="46"/>
+      <c r="O117" s="46"/>
+      <c r="P117" s="46"/>
+      <c r="Q117" s="46"/>
+      <c r="R117" s="46"/>
+      <c r="S117" s="46"/>
+      <c r="T117" s="46"/>
+      <c r="U117" s="46"/>
+      <c r="V117" s="46"/>
+      <c r="W117" s="46"/>
+      <c r="X117" s="8"/>
+    </row>
+    <row r="118" spans="3:24">
+      <c r="C118" s="5"/>
+      <c r="D118" s="46"/>
+      <c r="E118" s="46"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="46"/>
+      <c r="H118" s="46"/>
+      <c r="I118" s="46"/>
+      <c r="J118" s="46"/>
+      <c r="K118" s="46"/>
+      <c r="L118" s="46"/>
+      <c r="M118" s="46"/>
+      <c r="N118" s="46"/>
+      <c r="O118" s="46"/>
+      <c r="P118" s="46"/>
+      <c r="Q118" s="46"/>
+      <c r="R118" s="46"/>
+      <c r="S118" s="46"/>
+      <c r="T118" s="46"/>
+      <c r="U118" s="46"/>
+      <c r="V118" s="46"/>
+      <c r="W118" s="46"/>
+      <c r="X118" s="8"/>
+    </row>
+    <row r="119" spans="3:24">
+      <c r="C119" s="5"/>
+      <c r="D119" s="45" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E119" s="46"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="46"/>
+      <c r="H119" s="46"/>
+      <c r="I119" s="46"/>
+      <c r="J119" s="46"/>
+      <c r="K119" s="46"/>
+      <c r="L119" s="46"/>
+      <c r="M119" s="46"/>
+      <c r="N119" s="46"/>
+      <c r="O119" s="46"/>
+      <c r="P119" s="46"/>
+      <c r="Q119" s="46"/>
+      <c r="R119" s="46"/>
+      <c r="S119" s="46"/>
+      <c r="T119" s="46"/>
+      <c r="U119" s="46"/>
+      <c r="V119" s="46"/>
+      <c r="W119" s="46"/>
+      <c r="X119" s="8"/>
+    </row>
+    <row r="120" spans="3:24">
+      <c r="C120" s="5"/>
+      <c r="D120" s="47" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E120" s="46"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="46"/>
+      <c r="H120" s="46"/>
+      <c r="I120" s="46"/>
+      <c r="J120" s="46"/>
+      <c r="K120" s="46"/>
+      <c r="L120" s="46"/>
+      <c r="M120" s="46"/>
+      <c r="N120" s="46"/>
+      <c r="O120" s="46"/>
+      <c r="P120" s="46"/>
+      <c r="Q120" s="46"/>
+      <c r="R120" s="46"/>
+      <c r="S120" s="46"/>
+      <c r="T120" s="46"/>
+      <c r="U120" s="46"/>
+      <c r="V120" s="46"/>
+      <c r="W120" s="46"/>
+      <c r="X120" s="8"/>
+    </row>
+    <row r="121" spans="3:24">
+      <c r="C121" s="5"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="46"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="46"/>
+      <c r="I121" s="46"/>
+      <c r="J121" s="46"/>
+      <c r="K121" s="46"/>
+      <c r="L121" s="46"/>
+      <c r="M121" s="46"/>
+      <c r="N121" s="46"/>
+      <c r="O121" s="46"/>
+      <c r="P121" s="46"/>
+      <c r="Q121" s="46"/>
+      <c r="R121" s="46"/>
+      <c r="S121" s="46"/>
+      <c r="T121" s="46"/>
+      <c r="U121" s="46"/>
+      <c r="V121" s="46"/>
+      <c r="W121" s="46"/>
+      <c r="X121" s="8"/>
+    </row>
+    <row r="122" spans="3:24">
+      <c r="C122" s="5"/>
+      <c r="D122" s="47" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E122" s="46"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="46"/>
+      <c r="H122" s="46"/>
+      <c r="I122" s="46"/>
+      <c r="J122" s="46"/>
+      <c r="K122" s="46"/>
+      <c r="L122" s="46"/>
+      <c r="M122" s="46"/>
+      <c r="N122" s="46"/>
+      <c r="O122" s="46"/>
+      <c r="P122" s="46"/>
+      <c r="Q122" s="46"/>
+      <c r="R122" s="46"/>
+      <c r="S122" s="46"/>
+      <c r="T122" s="46"/>
+      <c r="U122" s="46"/>
+      <c r="V122" s="46"/>
+      <c r="W122" s="46"/>
+      <c r="X122" s="8"/>
+    </row>
+    <row r="123" spans="3:24">
+      <c r="C123" s="5"/>
+      <c r="D123" s="50" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E123" s="46"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="46"/>
+      <c r="H123" s="46"/>
+      <c r="I123" s="46"/>
+      <c r="J123" s="46"/>
+      <c r="K123" s="46"/>
+      <c r="L123" s="46"/>
+      <c r="M123" s="46"/>
+      <c r="N123" s="46"/>
+      <c r="O123" s="46"/>
+      <c r="P123" s="46"/>
+      <c r="Q123" s="46"/>
+      <c r="R123" s="46"/>
+      <c r="S123" s="46"/>
+      <c r="T123" s="46"/>
+      <c r="U123" s="46"/>
+      <c r="V123" s="46"/>
+      <c r="W123" s="46"/>
+      <c r="X123" s="8"/>
+    </row>
+    <row r="124" spans="3:24">
+      <c r="C124" s="5"/>
+      <c r="D124" s="47" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E124" s="46"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="46"/>
+      <c r="H124" s="46"/>
+      <c r="I124" s="46"/>
+      <c r="J124" s="46"/>
+      <c r="K124" s="46"/>
+      <c r="L124" s="46"/>
+      <c r="M124" s="46"/>
+      <c r="N124" s="46"/>
+      <c r="O124" s="46"/>
+      <c r="P124" s="46"/>
+      <c r="Q124" s="46"/>
+      <c r="R124" s="46"/>
+      <c r="S124" s="46"/>
+      <c r="T124" s="46"/>
+      <c r="U124" s="46"/>
+      <c r="V124" s="46"/>
+      <c r="W124" s="46"/>
+      <c r="X124" s="8"/>
+    </row>
+    <row r="125" spans="3:24">
+      <c r="C125" s="5"/>
+      <c r="D125" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" s="46"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="46"/>
+      <c r="H125" s="46"/>
+      <c r="I125" s="46"/>
+      <c r="J125" s="46"/>
+      <c r="K125" s="46"/>
+      <c r="L125" s="46"/>
+      <c r="M125" s="46"/>
+      <c r="N125" s="46"/>
+      <c r="O125" s="46"/>
+      <c r="P125" s="46"/>
+      <c r="Q125" s="46"/>
+      <c r="R125" s="46"/>
+      <c r="S125" s="46"/>
+      <c r="T125" s="46"/>
+      <c r="U125" s="46"/>
+      <c r="V125" s="46"/>
+      <c r="W125" s="46"/>
+      <c r="X125" s="8"/>
+    </row>
+    <row r="126" spans="3:24">
+      <c r="C126" s="5"/>
+      <c r="D126" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" s="46"/>
+      <c r="F126" s="46"/>
+      <c r="G126" s="46"/>
+      <c r="H126" s="46"/>
+      <c r="I126" s="46"/>
+      <c r="J126" s="46"/>
+      <c r="K126" s="46"/>
+      <c r="L126" s="46"/>
+      <c r="M126" s="46"/>
+      <c r="N126" s="46"/>
+      <c r="O126" s="46"/>
+      <c r="P126" s="46"/>
+      <c r="Q126" s="46"/>
+      <c r="R126" s="46"/>
+      <c r="S126" s="46"/>
+      <c r="T126" s="46"/>
+      <c r="U126" s="46"/>
+      <c r="V126" s="46"/>
+      <c r="W126" s="46"/>
+      <c r="X126" s="8"/>
+    </row>
+    <row r="127" spans="3:24" ht="25" thickBot="1">
+      <c r="C127" s="10"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11"/>
+      <c r="R127" s="11"/>
+      <c r="S127" s="11"/>
+      <c r="T127" s="11"/>
+      <c r="U127" s="11"/>
+      <c r="V127" s="11"/>
+      <c r="W127" s="11"/>
+      <c r="X127" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C287A1D8-FC8F-9A42-8F06-98F0D8F1ED09}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/flutter/flutter_new_05.xlsx
+++ b/flutter/flutter_new_05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toyohide/Desktop/hideyuki/MY_STUDY/flutter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688698DF-C299-EA42-BB90-BF291470B869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0586DDF-6DB6-AB4F-8D16-E940F89540BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="4560" windowWidth="24380" windowHeight="12600" activeTab="4" xr2:uid="{9EB48955-9C18-A442-AA06-3F1E4BD2E3B7}"/>
+    <workbookView xWindow="2980" yWindow="4560" windowWidth="24380" windowHeight="12600" activeTab="5" xr2:uid="{9EB48955-9C18-A442-AA06-3F1E4BD2E3B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="fvm" sheetId="3" r:id="rId3"/>
     <sheet name="splash" sheetId="4" r:id="rId4"/>
     <sheet name="三浦のやつ①" sheetId="5" r:id="rId5"/>
+    <sheet name="カスタムタブバー" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="1208">
   <si>
     <t>https://www.youtube.com/watch?v=ksaXszTHoys</t>
     <phoneticPr fontId="1"/>
@@ -18910,6 +18911,1747 @@
   <si>
     <t>https://runble1.com/flutter-hooks-riverpod-statenotifier-freezed-counter/</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flutter-custom tabbar-speedcode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_jaITT4Icy8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>///////////////////////////////////</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        children: _buildList(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  List&lt;Widget&gt; _buildList() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    List&lt;Widget&gt; list = [];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    list.add(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      list.add(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            onTap: () {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              indexChecked(index: i);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    setState(() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    });</t>
+  </si>
+  <si>
+    <t>//////////////////////</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Key? key,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      backgroundColor: Colors.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>white</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      body: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        children: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>[</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>LeftWidget</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Expanded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">(child: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>RightWidget</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>()),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">LeftWidget </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>StatefulWidget {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">LeftWidget({Key? key}) : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(key: key);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">State&lt;LeftWidget&gt; createState() =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>_LeftWidgetState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">_LeftWidgetState </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>State&lt;LeftWidget&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  List&lt;String&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">tabNames </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>= [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'tabA'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'tabB'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'tabC'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'tabD'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'tabE'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  int </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">checkedIndex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      width: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        color: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>0xfff42b51</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        borderRadius: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>BorderRadius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>circular</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Padding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        padding: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>EdgeInsets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>only</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">(top: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        child: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Icon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          Icons.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>more_horiz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          color: Colors.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>white</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          size: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        padding: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>EdgeInsets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>only</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          top: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          bottom: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          Icons.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">var </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">; i &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>tabNames</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>; i++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Expanded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          child: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>GestureDetector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            child: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>VerticalText</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>tabNames</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>[i],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              checked: (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">checkedIndex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>== i),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          Icons.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>list;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>indexChecked({</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">required </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>int index}) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">checkedIndex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">== index) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">checkedIndex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>= index;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">VerticalText </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>StatelessWidget {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">final </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">final </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">bool </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>checked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>VerticalText({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>required this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>required this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>checked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  }) : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(key: key);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>RotatedBox</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      quarterTurns: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      child: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        style: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>TextStyle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          color: (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>checked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">) ? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>0xff98162d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>) : Colors.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>white</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          fontSize: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">RightWidget </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>StatelessWidget {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">RightWidget({Key? key}) : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(key: key);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Container</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>();</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -19209,7 +20951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -19345,22 +21087,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19654,6 +21381,55 @@
         <a:xfrm>
           <a:off x="1193800" y="1270000"/>
           <a:ext cx="3340100" cy="2222500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE87AC38-BDA2-570B-5A8D-64F11B0711E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1193800" y="48006000"/>
+          <a:ext cx="3683000" cy="7861300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -47601,7 +49377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B814BDDF-79D9-A045-81D3-1E8EC96C0A8A}">
   <dimension ref="C1:X127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -47759,540 +49535,137 @@
     </row>
     <row r="35" spans="3:24">
       <c r="C35" s="5"/>
-      <c r="D35" s="45" t="s">
+      <c r="D35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
       <c r="X35" s="8"/>
     </row>
     <row r="36" spans="3:24">
       <c r="C36" s="5"/>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="6" t="s">
         <v>1098</v>
       </c>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
       <c r="X36" s="8"/>
     </row>
     <row r="37" spans="3:24">
       <c r="C37" s="5"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="46"/>
-      <c r="W37" s="46"/>
       <c r="X37" s="8"/>
     </row>
     <row r="38" spans="3:24">
       <c r="C38" s="5"/>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="46"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="46"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
       <c r="X38" s="8"/>
     </row>
     <row r="39" spans="3:24">
       <c r="C39" s="5"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="46"/>
-      <c r="W39" s="46"/>
       <c r="X39" s="8"/>
     </row>
     <row r="40" spans="3:24">
       <c r="C40" s="5"/>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="46"/>
-      <c r="W40" s="46"/>
       <c r="X40" s="8"/>
     </row>
     <row r="41" spans="3:24">
       <c r="C41" s="5"/>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="9" t="s">
         <v>1097</v>
       </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="46"/>
-      <c r="W41" s="46"/>
       <c r="X41" s="8"/>
     </row>
     <row r="42" spans="3:24">
       <c r="C42" s="5"/>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="9" t="s">
         <v>1100</v>
       </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
       <c r="X42" s="8"/>
     </row>
     <row r="43" spans="3:24">
       <c r="C43" s="5"/>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="46"/>
       <c r="X43" s="8"/>
     </row>
     <row r="44" spans="3:24">
       <c r="C44" s="5"/>
-      <c r="D44" s="47" t="s">
+      <c r="D44" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="46"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="46"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
       <c r="X44" s="8"/>
     </row>
     <row r="45" spans="3:24">
       <c r="C45" s="5"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="46"/>
-      <c r="S45" s="46"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="46"/>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
       <c r="X45" s="8"/>
     </row>
     <row r="46" spans="3:24">
       <c r="C46" s="5"/>
-      <c r="D46" s="45" t="s">
+      <c r="D46" s="6" t="s">
         <v>1101</v>
       </c>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="46"/>
-      <c r="S46" s="46"/>
-      <c r="T46" s="46"/>
-      <c r="U46" s="46"/>
-      <c r="V46" s="46"/>
-      <c r="W46" s="46"/>
       <c r="X46" s="8"/>
     </row>
     <row r="47" spans="3:24">
       <c r="C47" s="5"/>
-      <c r="D47" s="47" t="s">
+      <c r="D47" s="9" t="s">
         <v>1102</v>
       </c>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="46"/>
-      <c r="R47" s="46"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="46"/>
-      <c r="U47" s="46"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="46"/>
       <c r="X47" s="8"/>
     </row>
     <row r="48" spans="3:24">
       <c r="C48" s="5"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="46"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
       <c r="X48" s="8"/>
     </row>
     <row r="49" spans="3:24">
       <c r="C49" s="5"/>
-      <c r="D49" s="47" t="s">
+      <c r="D49" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="46"/>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="46"/>
-      <c r="R49" s="46"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
       <c r="X49" s="8"/>
     </row>
     <row r="50" spans="3:24">
       <c r="C50" s="5"/>
-      <c r="D50" s="48" t="s">
+      <c r="D50" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="46"/>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="46"/>
-      <c r="R50" s="46"/>
-      <c r="S50" s="46"/>
-      <c r="T50" s="46"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
       <c r="X50" s="8"/>
     </row>
     <row r="51" spans="3:24">
       <c r="C51" s="5"/>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="46"/>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="46"/>
-      <c r="R51" s="46"/>
-      <c r="S51" s="46"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
       <c r="X51" s="8"/>
     </row>
     <row r="52" spans="3:24">
       <c r="C52" s="5"/>
-      <c r="D52" s="47" t="s">
+      <c r="D52" s="9" t="s">
         <v>1103</v>
       </c>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="46"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="46"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
       <c r="X52" s="8"/>
     </row>
     <row r="53" spans="3:24">
       <c r="C53" s="5"/>
-      <c r="D53" s="47" t="s">
+      <c r="D53" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="46"/>
-      <c r="O53" s="46"/>
-      <c r="P53" s="46"/>
-      <c r="Q53" s="46"/>
-      <c r="R53" s="46"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="46"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
       <c r="X53" s="8"/>
     </row>
     <row r="54" spans="3:24">
       <c r="C54" s="5"/>
-      <c r="D54" s="47" t="s">
+      <c r="D54" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="46"/>
-      <c r="O54" s="46"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="46"/>
-      <c r="R54" s="46"/>
-      <c r="S54" s="46"/>
-      <c r="T54" s="46"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
       <c r="X54" s="8"/>
     </row>
     <row r="55" spans="3:24">
       <c r="C55" s="5"/>
-      <c r="D55" s="47" t="s">
+      <c r="D55" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="46"/>
-      <c r="O55" s="46"/>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="46"/>
-      <c r="R55" s="46"/>
-      <c r="S55" s="46"/>
-      <c r="T55" s="46"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
       <c r="X55" s="8"/>
     </row>
     <row r="56" spans="3:24" ht="25" thickBot="1">
@@ -48350,800 +49723,207 @@
     </row>
     <row r="61" spans="3:24">
       <c r="C61" s="5"/>
-      <c r="D61" s="45" t="s">
+      <c r="D61" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="46"/>
-      <c r="O61" s="46"/>
-      <c r="P61" s="46"/>
-      <c r="Q61" s="46"/>
-      <c r="R61" s="46"/>
-      <c r="S61" s="46"/>
-      <c r="T61" s="46"/>
-      <c r="U61" s="46"/>
-      <c r="V61" s="46"/>
-      <c r="W61" s="46"/>
       <c r="X61" s="8"/>
     </row>
     <row r="62" spans="3:24">
       <c r="C62" s="5"/>
-      <c r="D62" s="45" t="s">
+      <c r="D62" s="6" t="s">
         <v>1098</v>
       </c>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="46"/>
-      <c r="O62" s="46"/>
-      <c r="P62" s="46"/>
-      <c r="Q62" s="46"/>
-      <c r="R62" s="46"/>
-      <c r="S62" s="46"/>
-      <c r="T62" s="46"/>
-      <c r="U62" s="46"/>
-      <c r="V62" s="46"/>
-      <c r="W62" s="46"/>
       <c r="X62" s="8"/>
     </row>
     <row r="63" spans="3:24">
       <c r="C63" s="5"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="46"/>
-      <c r="O63" s="46"/>
-      <c r="P63" s="46"/>
-      <c r="Q63" s="46"/>
-      <c r="R63" s="46"/>
-      <c r="S63" s="46"/>
-      <c r="T63" s="46"/>
-      <c r="U63" s="46"/>
-      <c r="V63" s="46"/>
-      <c r="W63" s="46"/>
       <c r="X63" s="8"/>
     </row>
     <row r="64" spans="3:24">
       <c r="C64" s="5"/>
-      <c r="D64" s="45" t="s">
+      <c r="D64" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="46"/>
-      <c r="O64" s="46"/>
-      <c r="P64" s="46"/>
-      <c r="Q64" s="46"/>
-      <c r="R64" s="46"/>
-      <c r="S64" s="46"/>
-      <c r="T64" s="46"/>
-      <c r="U64" s="46"/>
-      <c r="V64" s="46"/>
-      <c r="W64" s="46"/>
       <c r="X64" s="8"/>
     </row>
     <row r="65" spans="3:24">
       <c r="C65" s="5"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="46"/>
-      <c r="N65" s="46"/>
-      <c r="O65" s="46"/>
-      <c r="P65" s="46"/>
-      <c r="Q65" s="46"/>
-      <c r="R65" s="46"/>
-      <c r="S65" s="46"/>
-      <c r="T65" s="46"/>
-      <c r="U65" s="46"/>
-      <c r="V65" s="46"/>
-      <c r="W65" s="46"/>
       <c r="X65" s="8"/>
     </row>
     <row r="66" spans="3:24">
       <c r="C66" s="5"/>
-      <c r="D66" s="45" t="s">
+      <c r="D66" s="6" t="s">
         <v>1107</v>
       </c>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="46"/>
-      <c r="O66" s="46"/>
-      <c r="P66" s="46"/>
-      <c r="Q66" s="46"/>
-      <c r="R66" s="46"/>
-      <c r="S66" s="46"/>
-      <c r="T66" s="46"/>
-      <c r="U66" s="46"/>
-      <c r="V66" s="46"/>
-      <c r="W66" s="46"/>
       <c r="X66" s="8"/>
     </row>
     <row r="67" spans="3:24">
       <c r="C67" s="5"/>
-      <c r="D67" s="47" t="s">
+      <c r="D67" s="9" t="s">
         <v>1108</v>
       </c>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="46"/>
-      <c r="N67" s="46"/>
-      <c r="O67" s="46"/>
-      <c r="P67" s="46"/>
-      <c r="Q67" s="46"/>
-      <c r="R67" s="46"/>
-      <c r="S67" s="46"/>
-      <c r="T67" s="46"/>
-      <c r="U67" s="46"/>
-      <c r="V67" s="46"/>
-      <c r="W67" s="46"/>
       <c r="X67" s="8"/>
     </row>
     <row r="68" spans="3:24">
       <c r="C68" s="5"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="46"/>
-      <c r="N68" s="46"/>
-      <c r="O68" s="46"/>
-      <c r="P68" s="46"/>
-      <c r="Q68" s="46"/>
-      <c r="R68" s="46"/>
-      <c r="S68" s="46"/>
-      <c r="T68" s="46"/>
-      <c r="U68" s="46"/>
-      <c r="V68" s="46"/>
-      <c r="W68" s="46"/>
       <c r="X68" s="8"/>
     </row>
     <row r="69" spans="3:24">
       <c r="C69" s="5"/>
-      <c r="D69" s="47" t="s">
+      <c r="D69" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E69" s="46"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="46"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="46"/>
-      <c r="N69" s="46"/>
-      <c r="O69" s="46"/>
-      <c r="P69" s="46"/>
-      <c r="Q69" s="46"/>
-      <c r="R69" s="46"/>
-      <c r="S69" s="46"/>
-      <c r="T69" s="46"/>
-      <c r="U69" s="46"/>
-      <c r="V69" s="46"/>
-      <c r="W69" s="46"/>
       <c r="X69" s="8"/>
     </row>
     <row r="70" spans="3:24">
       <c r="C70" s="5"/>
-      <c r="D70" s="48" t="s">
+      <c r="D70" s="16" t="s">
         <v>1109</v>
       </c>
-      <c r="E70" s="46"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="46"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="46"/>
-      <c r="O70" s="46"/>
-      <c r="P70" s="46"/>
-      <c r="Q70" s="46"/>
-      <c r="R70" s="46"/>
-      <c r="S70" s="46"/>
-      <c r="T70" s="46"/>
-      <c r="U70" s="46"/>
-      <c r="V70" s="46"/>
-      <c r="W70" s="46"/>
       <c r="X70" s="8"/>
     </row>
     <row r="71" spans="3:24">
       <c r="C71" s="5"/>
-      <c r="D71" s="47" t="s">
+      <c r="D71" s="9" t="s">
         <v>1110</v>
       </c>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="46"/>
-      <c r="N71" s="46"/>
-      <c r="O71" s="46"/>
-      <c r="P71" s="46"/>
-      <c r="Q71" s="46"/>
-      <c r="R71" s="46"/>
-      <c r="S71" s="46"/>
-      <c r="T71" s="46"/>
-      <c r="U71" s="46"/>
-      <c r="V71" s="46"/>
-      <c r="W71" s="46"/>
       <c r="X71" s="8"/>
     </row>
     <row r="72" spans="3:24">
       <c r="C72" s="5"/>
-      <c r="D72" s="46"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="46"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="46"/>
-      <c r="O72" s="46"/>
-      <c r="P72" s="46"/>
-      <c r="Q72" s="46"/>
-      <c r="R72" s="46"/>
-      <c r="S72" s="46"/>
-      <c r="T72" s="46"/>
-      <c r="U72" s="46"/>
-      <c r="V72" s="46"/>
-      <c r="W72" s="46"/>
       <c r="X72" s="8"/>
     </row>
     <row r="73" spans="3:24">
       <c r="C73" s="5"/>
-      <c r="D73" s="47" t="s">
+      <c r="D73" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="46"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="46"/>
-      <c r="N73" s="46"/>
-      <c r="O73" s="46"/>
-      <c r="P73" s="46"/>
-      <c r="Q73" s="46"/>
-      <c r="R73" s="46"/>
-      <c r="S73" s="46"/>
-      <c r="T73" s="46"/>
-      <c r="U73" s="46"/>
-      <c r="V73" s="46"/>
-      <c r="W73" s="46"/>
       <c r="X73" s="8"/>
     </row>
     <row r="74" spans="3:24">
       <c r="C74" s="5"/>
-      <c r="D74" s="47" t="s">
+      <c r="D74" s="9" t="s">
         <v>1036</v>
       </c>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="46"/>
-      <c r="M74" s="46"/>
-      <c r="N74" s="46"/>
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
-      <c r="Q74" s="46"/>
-      <c r="R74" s="46"/>
-      <c r="S74" s="46"/>
-      <c r="T74" s="46"/>
-      <c r="U74" s="46"/>
-      <c r="V74" s="46"/>
-      <c r="W74" s="46"/>
       <c r="X74" s="8"/>
     </row>
     <row r="75" spans="3:24">
       <c r="C75" s="5"/>
-      <c r="D75" s="47" t="s">
+      <c r="D75" s="9" t="s">
         <v>1111</v>
       </c>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="46"/>
-      <c r="O75" s="46"/>
-      <c r="P75" s="46"/>
-      <c r="Q75" s="46"/>
-      <c r="R75" s="46"/>
-      <c r="S75" s="46"/>
-      <c r="T75" s="46"/>
-      <c r="U75" s="46"/>
-      <c r="V75" s="46"/>
-      <c r="W75" s="46"/>
       <c r="X75" s="8"/>
     </row>
     <row r="76" spans="3:24">
       <c r="C76" s="5"/>
-      <c r="D76" s="47" t="s">
+      <c r="D76" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E76" s="46"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="46"/>
-      <c r="L76" s="46"/>
-      <c r="M76" s="46"/>
-      <c r="N76" s="46"/>
-      <c r="O76" s="46"/>
-      <c r="P76" s="46"/>
-      <c r="Q76" s="46"/>
-      <c r="R76" s="46"/>
-      <c r="S76" s="46"/>
-      <c r="T76" s="46"/>
-      <c r="U76" s="46"/>
-      <c r="V76" s="46"/>
-      <c r="W76" s="46"/>
       <c r="X76" s="8"/>
     </row>
     <row r="77" spans="3:24">
       <c r="C77" s="5"/>
-      <c r="D77" s="47" t="s">
+      <c r="D77" s="9" t="s">
         <v>1112</v>
       </c>
-      <c r="E77" s="46"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="46"/>
-      <c r="K77" s="46"/>
-      <c r="L77" s="46"/>
-      <c r="M77" s="46"/>
-      <c r="N77" s="46"/>
-      <c r="O77" s="46"/>
-      <c r="P77" s="46"/>
-      <c r="Q77" s="46"/>
-      <c r="R77" s="46"/>
-      <c r="S77" s="46"/>
-      <c r="T77" s="46"/>
-      <c r="U77" s="46"/>
-      <c r="V77" s="46"/>
-      <c r="W77" s="46"/>
       <c r="X77" s="8"/>
     </row>
     <row r="78" spans="3:24">
       <c r="C78" s="5"/>
-      <c r="D78" s="47" t="s">
+      <c r="D78" s="9" t="s">
         <v>1113</v>
       </c>
-      <c r="E78" s="46"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="46"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="46"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="46"/>
-      <c r="O78" s="46"/>
-      <c r="P78" s="46"/>
-      <c r="Q78" s="46"/>
-      <c r="R78" s="46"/>
-      <c r="S78" s="46"/>
-      <c r="T78" s="46"/>
-      <c r="U78" s="46"/>
-      <c r="V78" s="46"/>
-      <c r="W78" s="46"/>
       <c r="X78" s="8"/>
     </row>
     <row r="79" spans="3:24">
       <c r="C79" s="5"/>
-      <c r="D79" s="47" t="s">
+      <c r="D79" s="9" t="s">
         <v>1114</v>
       </c>
-      <c r="E79" s="46"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="46"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="46"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="46"/>
-      <c r="N79" s="46"/>
-      <c r="O79" s="46"/>
-      <c r="P79" s="46"/>
-      <c r="Q79" s="46"/>
-      <c r="R79" s="46"/>
-      <c r="S79" s="46"/>
-      <c r="T79" s="46"/>
-      <c r="U79" s="46"/>
-      <c r="V79" s="46"/>
-      <c r="W79" s="46"/>
       <c r="X79" s="8"/>
     </row>
     <row r="80" spans="3:24">
       <c r="C80" s="5"/>
-      <c r="D80" s="47" t="s">
+      <c r="D80" s="9" t="s">
         <v>1115</v>
       </c>
-      <c r="E80" s="46"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="46"/>
-      <c r="K80" s="46"/>
-      <c r="L80" s="46"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="46"/>
-      <c r="O80" s="46"/>
-      <c r="P80" s="46"/>
-      <c r="Q80" s="46"/>
-      <c r="R80" s="46"/>
-      <c r="S80" s="46"/>
-      <c r="T80" s="46"/>
-      <c r="U80" s="46"/>
-      <c r="V80" s="46"/>
-      <c r="W80" s="46"/>
       <c r="X80" s="8"/>
     </row>
     <row r="81" spans="3:24">
       <c r="C81" s="5"/>
-      <c r="D81" s="47" t="s">
+      <c r="D81" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E81" s="46"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="46"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="46"/>
-      <c r="M81" s="46"/>
-      <c r="N81" s="46"/>
-      <c r="O81" s="46"/>
-      <c r="P81" s="46"/>
-      <c r="Q81" s="46"/>
-      <c r="R81" s="46"/>
-      <c r="S81" s="46"/>
-      <c r="T81" s="46"/>
-      <c r="U81" s="46"/>
-      <c r="V81" s="46"/>
-      <c r="W81" s="46"/>
       <c r="X81" s="8"/>
     </row>
     <row r="82" spans="3:24">
       <c r="C82" s="5"/>
-      <c r="D82" s="47" t="s">
+      <c r="D82" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E82" s="46"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="46"/>
-      <c r="K82" s="46"/>
-      <c r="L82" s="46"/>
-      <c r="M82" s="46"/>
-      <c r="N82" s="46"/>
-      <c r="O82" s="46"/>
-      <c r="P82" s="46"/>
-      <c r="Q82" s="46"/>
-      <c r="R82" s="46"/>
-      <c r="S82" s="46"/>
-      <c r="T82" s="46"/>
-      <c r="U82" s="46"/>
-      <c r="V82" s="46"/>
-      <c r="W82" s="46"/>
       <c r="X82" s="8"/>
     </row>
     <row r="83" spans="3:24">
       <c r="C83" s="5"/>
-      <c r="D83" s="47" t="s">
+      <c r="D83" s="9" t="s">
         <v>1116</v>
       </c>
-      <c r="E83" s="46"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
-      <c r="J83" s="46"/>
-      <c r="K83" s="46"/>
-      <c r="L83" s="46"/>
-      <c r="M83" s="46"/>
-      <c r="N83" s="46"/>
-      <c r="O83" s="46"/>
-      <c r="P83" s="46"/>
-      <c r="Q83" s="46"/>
-      <c r="R83" s="46"/>
-      <c r="S83" s="46"/>
-      <c r="T83" s="46"/>
-      <c r="U83" s="46"/>
-      <c r="V83" s="46"/>
-      <c r="W83" s="46"/>
       <c r="X83" s="8"/>
     </row>
     <row r="84" spans="3:24">
       <c r="C84" s="5"/>
-      <c r="D84" s="47" t="s">
+      <c r="D84" s="9" t="s">
         <v>1105</v>
       </c>
-      <c r="E84" s="46"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46"/>
-      <c r="I84" s="46"/>
-      <c r="J84" s="46"/>
-      <c r="K84" s="46"/>
-      <c r="L84" s="46"/>
-      <c r="M84" s="46"/>
-      <c r="N84" s="46"/>
-      <c r="O84" s="46"/>
-      <c r="P84" s="46"/>
-      <c r="Q84" s="46"/>
-      <c r="R84" s="46"/>
-      <c r="S84" s="46"/>
-      <c r="T84" s="46"/>
-      <c r="U84" s="46"/>
-      <c r="V84" s="46"/>
-      <c r="W84" s="46"/>
       <c r="X84" s="8"/>
     </row>
     <row r="85" spans="3:24">
       <c r="C85" s="5"/>
-      <c r="D85" s="47" t="s">
+      <c r="D85" s="9" t="s">
         <v>1117</v>
       </c>
-      <c r="E85" s="46"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="46"/>
-      <c r="I85" s="46"/>
-      <c r="J85" s="46"/>
-      <c r="K85" s="46"/>
-      <c r="L85" s="46"/>
-      <c r="M85" s="46"/>
-      <c r="N85" s="46"/>
-      <c r="O85" s="46"/>
-      <c r="P85" s="46"/>
-      <c r="Q85" s="46"/>
-      <c r="R85" s="46"/>
-      <c r="S85" s="46"/>
-      <c r="T85" s="46"/>
-      <c r="U85" s="46"/>
-      <c r="V85" s="46"/>
-      <c r="W85" s="46"/>
       <c r="X85" s="8"/>
     </row>
     <row r="86" spans="3:24">
       <c r="C86" s="5"/>
-      <c r="D86" s="47" t="s">
+      <c r="D86" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E86" s="46"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="46"/>
-      <c r="K86" s="46"/>
-      <c r="L86" s="46"/>
-      <c r="M86" s="46"/>
-      <c r="N86" s="46"/>
-      <c r="O86" s="46"/>
-      <c r="P86" s="46"/>
-      <c r="Q86" s="46"/>
-      <c r="R86" s="46"/>
-      <c r="S86" s="46"/>
-      <c r="T86" s="46"/>
-      <c r="U86" s="46"/>
-      <c r="V86" s="46"/>
-      <c r="W86" s="46"/>
       <c r="X86" s="8"/>
     </row>
     <row r="87" spans="3:24">
       <c r="C87" s="5"/>
-      <c r="D87" s="47" t="s">
+      <c r="D87" s="9" t="s">
         <v>1118</v>
       </c>
-      <c r="E87" s="46"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="46"/>
-      <c r="J87" s="46"/>
-      <c r="K87" s="46"/>
-      <c r="L87" s="46"/>
-      <c r="M87" s="46"/>
-      <c r="N87" s="46"/>
-      <c r="O87" s="46"/>
-      <c r="P87" s="46"/>
-      <c r="Q87" s="46"/>
-      <c r="R87" s="46"/>
-      <c r="S87" s="46"/>
-      <c r="T87" s="46"/>
-      <c r="U87" s="46"/>
-      <c r="V87" s="46"/>
-      <c r="W87" s="46"/>
       <c r="X87" s="8"/>
     </row>
     <row r="88" spans="3:24">
       <c r="C88" s="5"/>
-      <c r="D88" s="47" t="s">
+      <c r="D88" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E88" s="46"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="46"/>
-      <c r="J88" s="46"/>
-      <c r="K88" s="46"/>
-      <c r="L88" s="46"/>
-      <c r="M88" s="46"/>
-      <c r="N88" s="46"/>
-      <c r="O88" s="46"/>
-      <c r="P88" s="46"/>
-      <c r="Q88" s="46"/>
-      <c r="R88" s="46"/>
-      <c r="S88" s="46"/>
-      <c r="T88" s="46"/>
-      <c r="U88" s="46"/>
-      <c r="V88" s="46"/>
-      <c r="W88" s="46"/>
       <c r="X88" s="8"/>
     </row>
     <row r="89" spans="3:24">
       <c r="C89" s="5"/>
-      <c r="D89" s="47" t="s">
+      <c r="D89" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="46"/>
-      <c r="J89" s="46"/>
-      <c r="K89" s="46"/>
-      <c r="L89" s="46"/>
-      <c r="M89" s="46"/>
-      <c r="N89" s="46"/>
-      <c r="O89" s="46"/>
-      <c r="P89" s="46"/>
-      <c r="Q89" s="46"/>
-      <c r="R89" s="46"/>
-      <c r="S89" s="46"/>
-      <c r="T89" s="46"/>
-      <c r="U89" s="46"/>
-      <c r="V89" s="46"/>
-      <c r="W89" s="46"/>
       <c r="X89" s="8"/>
     </row>
     <row r="90" spans="3:24">
       <c r="C90" s="5"/>
-      <c r="D90" s="47" t="s">
+      <c r="D90" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E90" s="46"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="46"/>
-      <c r="I90" s="46"/>
-      <c r="J90" s="46"/>
-      <c r="K90" s="46"/>
-      <c r="L90" s="46"/>
-      <c r="M90" s="46"/>
-      <c r="N90" s="46"/>
-      <c r="O90" s="46"/>
-      <c r="P90" s="46"/>
-      <c r="Q90" s="46"/>
-      <c r="R90" s="46"/>
-      <c r="S90" s="46"/>
-      <c r="T90" s="46"/>
-      <c r="U90" s="46"/>
-      <c r="V90" s="46"/>
-      <c r="W90" s="46"/>
       <c r="X90" s="8"/>
     </row>
     <row r="91" spans="3:24">
       <c r="C91" s="5"/>
-      <c r="D91" s="47" t="s">
+      <c r="D91" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="46"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="46"/>
-      <c r="J91" s="46"/>
-      <c r="K91" s="46"/>
-      <c r="L91" s="46"/>
-      <c r="M91" s="46"/>
-      <c r="N91" s="46"/>
-      <c r="O91" s="46"/>
-      <c r="P91" s="46"/>
-      <c r="Q91" s="46"/>
-      <c r="R91" s="46"/>
-      <c r="S91" s="46"/>
-      <c r="T91" s="46"/>
-      <c r="U91" s="46"/>
-      <c r="V91" s="46"/>
-      <c r="W91" s="46"/>
       <c r="X91" s="8"/>
     </row>
     <row r="92" spans="3:24" ht="25" thickBot="1">
@@ -49201,766 +49981,188 @@
     </row>
     <row r="97" spans="3:24">
       <c r="C97" s="5"/>
-      <c r="D97" s="45" t="s">
+      <c r="D97" s="6" t="s">
         <v>1098</v>
       </c>
-      <c r="E97" s="46"/>
-      <c r="F97" s="46"/>
-      <c r="G97" s="46"/>
-      <c r="H97" s="46"/>
-      <c r="I97" s="46"/>
-      <c r="J97" s="46"/>
-      <c r="K97" s="46"/>
-      <c r="L97" s="46"/>
-      <c r="M97" s="46"/>
-      <c r="N97" s="46"/>
-      <c r="O97" s="46"/>
-      <c r="P97" s="46"/>
-      <c r="Q97" s="46"/>
-      <c r="R97" s="46"/>
-      <c r="S97" s="46"/>
-      <c r="T97" s="46"/>
-      <c r="U97" s="46"/>
-      <c r="V97" s="46"/>
-      <c r="W97" s="46"/>
       <c r="X97" s="8"/>
     </row>
     <row r="98" spans="3:24">
       <c r="C98" s="5"/>
-      <c r="D98" s="46"/>
-      <c r="E98" s="46"/>
-      <c r="F98" s="46"/>
-      <c r="G98" s="46"/>
-      <c r="H98" s="46"/>
-      <c r="I98" s="46"/>
-      <c r="J98" s="46"/>
-      <c r="K98" s="46"/>
-      <c r="L98" s="46"/>
-      <c r="M98" s="46"/>
-      <c r="N98" s="46"/>
-      <c r="O98" s="46"/>
-      <c r="P98" s="46"/>
-      <c r="Q98" s="46"/>
-      <c r="R98" s="46"/>
-      <c r="S98" s="46"/>
-      <c r="T98" s="46"/>
-      <c r="U98" s="46"/>
-      <c r="V98" s="46"/>
-      <c r="W98" s="46"/>
       <c r="X98" s="8"/>
     </row>
     <row r="99" spans="3:24">
       <c r="C99" s="5"/>
-      <c r="D99" s="45" t="s">
+      <c r="D99" s="6" t="s">
         <v>1124</v>
       </c>
-      <c r="E99" s="46"/>
-      <c r="F99" s="46"/>
-      <c r="G99" s="46"/>
-      <c r="H99" s="46"/>
-      <c r="I99" s="46"/>
-      <c r="J99" s="46"/>
-      <c r="K99" s="46"/>
-      <c r="L99" s="46"/>
-      <c r="M99" s="46"/>
-      <c r="N99" s="46"/>
-      <c r="O99" s="46"/>
-      <c r="P99" s="46"/>
-      <c r="Q99" s="46"/>
-      <c r="R99" s="46"/>
-      <c r="S99" s="46"/>
-      <c r="T99" s="46"/>
-      <c r="U99" s="46"/>
-      <c r="V99" s="46"/>
-      <c r="W99" s="46"/>
       <c r="X99" s="8"/>
     </row>
     <row r="100" spans="3:24">
       <c r="C100" s="5"/>
-      <c r="D100" s="46"/>
-      <c r="E100" s="46"/>
-      <c r="F100" s="46"/>
-      <c r="G100" s="46"/>
-      <c r="H100" s="46"/>
-      <c r="I100" s="46"/>
-      <c r="J100" s="46"/>
-      <c r="K100" s="46"/>
-      <c r="L100" s="46"/>
-      <c r="M100" s="46"/>
-      <c r="N100" s="46"/>
-      <c r="O100" s="46"/>
-      <c r="P100" s="46"/>
-      <c r="Q100" s="46"/>
-      <c r="R100" s="46"/>
-      <c r="S100" s="46"/>
-      <c r="T100" s="46"/>
-      <c r="U100" s="46"/>
-      <c r="V100" s="46"/>
-      <c r="W100" s="46"/>
       <c r="X100" s="8"/>
     </row>
     <row r="101" spans="3:24">
       <c r="C101" s="5"/>
-      <c r="D101" s="45" t="s">
+      <c r="D101" s="6" t="s">
         <v>1125</v>
       </c>
-      <c r="E101" s="46"/>
-      <c r="F101" s="46"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="46"/>
-      <c r="J101" s="46"/>
-      <c r="K101" s="46"/>
-      <c r="L101" s="46"/>
-      <c r="M101" s="46"/>
-      <c r="N101" s="46"/>
-      <c r="O101" s="46"/>
-      <c r="P101" s="46"/>
-      <c r="Q101" s="46"/>
-      <c r="R101" s="46"/>
-      <c r="S101" s="46"/>
-      <c r="T101" s="46"/>
-      <c r="U101" s="46"/>
-      <c r="V101" s="46"/>
-      <c r="W101" s="46"/>
       <c r="X101" s="8"/>
     </row>
     <row r="102" spans="3:24">
       <c r="C102" s="5"/>
-      <c r="D102" s="46"/>
-      <c r="E102" s="46"/>
-      <c r="F102" s="46"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="46"/>
-      <c r="I102" s="46"/>
-      <c r="J102" s="46"/>
-      <c r="K102" s="46"/>
-      <c r="L102" s="46"/>
-      <c r="M102" s="46"/>
-      <c r="N102" s="46"/>
-      <c r="O102" s="46"/>
-      <c r="P102" s="46"/>
-      <c r="Q102" s="46"/>
-      <c r="R102" s="46"/>
-      <c r="S102" s="46"/>
-      <c r="T102" s="46"/>
-      <c r="U102" s="46"/>
-      <c r="V102" s="46"/>
-      <c r="W102" s="46"/>
       <c r="X102" s="8"/>
     </row>
     <row r="103" spans="3:24">
       <c r="C103" s="5"/>
-      <c r="D103" s="49" t="s">
+      <c r="D103" s="18" t="s">
         <v>1120</v>
       </c>
-      <c r="E103" s="46"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="46"/>
-      <c r="J103" s="46"/>
-      <c r="K103" s="46"/>
-      <c r="L103" s="46"/>
-      <c r="M103" s="46"/>
-      <c r="N103" s="46"/>
-      <c r="O103" s="46"/>
-      <c r="P103" s="46"/>
-      <c r="Q103" s="46"/>
-      <c r="R103" s="46"/>
-      <c r="S103" s="46"/>
-      <c r="T103" s="46"/>
-      <c r="U103" s="46"/>
-      <c r="V103" s="46"/>
-      <c r="W103" s="46"/>
       <c r="X103" s="8"/>
     </row>
     <row r="104" spans="3:24">
       <c r="C104" s="5"/>
-      <c r="D104" s="46"/>
-      <c r="E104" s="46"/>
-      <c r="F104" s="46"/>
-      <c r="G104" s="46"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="46"/>
-      <c r="J104" s="46"/>
-      <c r="K104" s="46"/>
-      <c r="L104" s="46"/>
-      <c r="M104" s="46"/>
-      <c r="N104" s="46"/>
-      <c r="O104" s="46"/>
-      <c r="P104" s="46"/>
-      <c r="Q104" s="46"/>
-      <c r="R104" s="46"/>
-      <c r="S104" s="46"/>
-      <c r="T104" s="46"/>
-      <c r="U104" s="46"/>
-      <c r="V104" s="46"/>
-      <c r="W104" s="46"/>
       <c r="X104" s="8"/>
     </row>
     <row r="105" spans="3:24">
       <c r="C105" s="5"/>
-      <c r="D105" s="48" t="s">
+      <c r="D105" s="16" t="s">
         <v>1121</v>
       </c>
-      <c r="E105" s="46"/>
-      <c r="F105" s="46"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="46"/>
-      <c r="I105" s="46"/>
-      <c r="J105" s="46"/>
-      <c r="K105" s="46"/>
-      <c r="L105" s="46"/>
-      <c r="M105" s="46"/>
-      <c r="N105" s="46"/>
-      <c r="O105" s="46"/>
-      <c r="P105" s="46"/>
-      <c r="Q105" s="46"/>
-      <c r="R105" s="46"/>
-      <c r="S105" s="46"/>
-      <c r="T105" s="46"/>
-      <c r="U105" s="46"/>
-      <c r="V105" s="46"/>
-      <c r="W105" s="46"/>
       <c r="X105" s="8"/>
     </row>
     <row r="106" spans="3:24">
       <c r="C106" s="5"/>
-      <c r="D106" s="45" t="s">
+      <c r="D106" s="6" t="s">
         <v>1126</v>
       </c>
-      <c r="E106" s="46"/>
-      <c r="F106" s="46"/>
-      <c r="G106" s="46"/>
-      <c r="H106" s="46"/>
-      <c r="I106" s="46"/>
-      <c r="J106" s="46"/>
-      <c r="K106" s="46"/>
-      <c r="L106" s="46"/>
-      <c r="M106" s="46"/>
-      <c r="N106" s="46"/>
-      <c r="O106" s="46"/>
-      <c r="P106" s="46"/>
-      <c r="Q106" s="46"/>
-      <c r="R106" s="46"/>
-      <c r="S106" s="46"/>
-      <c r="T106" s="46"/>
-      <c r="U106" s="46"/>
-      <c r="V106" s="46"/>
-      <c r="W106" s="46"/>
       <c r="X106" s="8"/>
     </row>
     <row r="107" spans="3:24">
       <c r="C107" s="5"/>
-      <c r="D107" s="47" t="s">
+      <c r="D107" s="9" t="s">
         <v>1127</v>
       </c>
-      <c r="E107" s="46"/>
-      <c r="F107" s="46"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="46"/>
-      <c r="I107" s="46"/>
-      <c r="J107" s="46"/>
-      <c r="K107" s="46"/>
-      <c r="L107" s="46"/>
-      <c r="M107" s="46"/>
-      <c r="N107" s="46"/>
-      <c r="O107" s="46"/>
-      <c r="P107" s="46"/>
-      <c r="Q107" s="46"/>
-      <c r="R107" s="46"/>
-      <c r="S107" s="46"/>
-      <c r="T107" s="46"/>
-      <c r="U107" s="46"/>
-      <c r="V107" s="46"/>
-      <c r="W107" s="46"/>
       <c r="X107" s="8"/>
     </row>
     <row r="108" spans="3:24">
       <c r="C108" s="5"/>
-      <c r="D108" s="47" t="s">
+      <c r="D108" s="9" t="s">
         <v>1128</v>
       </c>
-      <c r="E108" s="46"/>
-      <c r="F108" s="46"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="46"/>
-      <c r="I108" s="46"/>
-      <c r="J108" s="46"/>
-      <c r="K108" s="46"/>
-      <c r="L108" s="46"/>
-      <c r="M108" s="46"/>
-      <c r="N108" s="46"/>
-      <c r="O108" s="46"/>
-      <c r="P108" s="46"/>
-      <c r="Q108" s="46"/>
-      <c r="R108" s="46"/>
-      <c r="S108" s="46"/>
-      <c r="T108" s="46"/>
-      <c r="U108" s="46"/>
-      <c r="V108" s="46"/>
-      <c r="W108" s="46"/>
       <c r="X108" s="8"/>
     </row>
     <row r="109" spans="3:24">
       <c r="C109" s="5"/>
-      <c r="D109" s="50" t="s">
+      <c r="D109" s="45" t="s">
         <v>1129</v>
       </c>
-      <c r="E109" s="46"/>
-      <c r="F109" s="46"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="46"/>
-      <c r="I109" s="46"/>
-      <c r="J109" s="46"/>
-      <c r="K109" s="46"/>
-      <c r="L109" s="46"/>
-      <c r="M109" s="46"/>
-      <c r="N109" s="46"/>
-      <c r="O109" s="46"/>
-      <c r="P109" s="46"/>
-      <c r="Q109" s="46"/>
-      <c r="R109" s="46"/>
-      <c r="S109" s="46"/>
-      <c r="T109" s="46"/>
-      <c r="U109" s="46"/>
-      <c r="V109" s="46"/>
-      <c r="W109" s="46"/>
       <c r="X109" s="8"/>
     </row>
     <row r="110" spans="3:24">
       <c r="C110" s="5"/>
-      <c r="D110" s="47" t="s">
+      <c r="D110" s="9" t="s">
         <v>1122</v>
       </c>
-      <c r="E110" s="46"/>
-      <c r="F110" s="46"/>
-      <c r="G110" s="46"/>
-      <c r="H110" s="46"/>
-      <c r="I110" s="46"/>
-      <c r="J110" s="46"/>
-      <c r="K110" s="46"/>
-      <c r="L110" s="46"/>
-      <c r="M110" s="46"/>
-      <c r="N110" s="46"/>
-      <c r="O110" s="46"/>
-      <c r="P110" s="46"/>
-      <c r="Q110" s="46"/>
-      <c r="R110" s="46"/>
-      <c r="S110" s="46"/>
-      <c r="T110" s="46"/>
-      <c r="U110" s="46"/>
-      <c r="V110" s="46"/>
-      <c r="W110" s="46"/>
       <c r="X110" s="8"/>
     </row>
     <row r="111" spans="3:24">
       <c r="C111" s="5"/>
-      <c r="D111" s="47" t="s">
+      <c r="D111" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E111" s="46"/>
-      <c r="F111" s="46"/>
-      <c r="G111" s="46"/>
-      <c r="H111" s="46"/>
-      <c r="I111" s="46"/>
-      <c r="J111" s="46"/>
-      <c r="K111" s="46"/>
-      <c r="L111" s="46"/>
-      <c r="M111" s="46"/>
-      <c r="N111" s="46"/>
-      <c r="O111" s="46"/>
-      <c r="P111" s="46"/>
-      <c r="Q111" s="46"/>
-      <c r="R111" s="46"/>
-      <c r="S111" s="46"/>
-      <c r="T111" s="46"/>
-      <c r="U111" s="46"/>
-      <c r="V111" s="46"/>
-      <c r="W111" s="46"/>
       <c r="X111" s="8"/>
     </row>
     <row r="112" spans="3:24">
       <c r="C112" s="5"/>
-      <c r="D112" s="46"/>
-      <c r="E112" s="46"/>
-      <c r="F112" s="46"/>
-      <c r="G112" s="46"/>
-      <c r="H112" s="46"/>
-      <c r="I112" s="46"/>
-      <c r="J112" s="46"/>
-      <c r="K112" s="46"/>
-      <c r="L112" s="46"/>
-      <c r="M112" s="46"/>
-      <c r="N112" s="46"/>
-      <c r="O112" s="46"/>
-      <c r="P112" s="46"/>
-      <c r="Q112" s="46"/>
-      <c r="R112" s="46"/>
-      <c r="S112" s="46"/>
-      <c r="T112" s="46"/>
-      <c r="U112" s="46"/>
-      <c r="V112" s="46"/>
-      <c r="W112" s="46"/>
       <c r="X112" s="8"/>
     </row>
     <row r="113" spans="3:24">
       <c r="C113" s="5"/>
-      <c r="D113" s="49" t="s">
+      <c r="D113" s="18" t="s">
         <v>1120</v>
       </c>
-      <c r="E113" s="46"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="46"/>
-      <c r="I113" s="46"/>
-      <c r="J113" s="46"/>
-      <c r="K113" s="46"/>
-      <c r="L113" s="46"/>
-      <c r="M113" s="46"/>
-      <c r="N113" s="46"/>
-      <c r="O113" s="46"/>
-      <c r="P113" s="46"/>
-      <c r="Q113" s="46"/>
-      <c r="R113" s="46"/>
-      <c r="S113" s="46"/>
-      <c r="T113" s="46"/>
-      <c r="U113" s="46"/>
-      <c r="V113" s="46"/>
-      <c r="W113" s="46"/>
       <c r="X113" s="8"/>
     </row>
     <row r="114" spans="3:24">
       <c r="C114" s="5"/>
-      <c r="D114" s="46"/>
-      <c r="E114" s="46"/>
-      <c r="F114" s="46"/>
-      <c r="G114" s="46"/>
-      <c r="H114" s="46"/>
-      <c r="I114" s="46"/>
-      <c r="J114" s="46"/>
-      <c r="K114" s="46"/>
-      <c r="L114" s="46"/>
-      <c r="M114" s="46"/>
-      <c r="N114" s="46"/>
-      <c r="O114" s="46"/>
-      <c r="P114" s="46"/>
-      <c r="Q114" s="46"/>
-      <c r="R114" s="46"/>
-      <c r="S114" s="46"/>
-      <c r="T114" s="46"/>
-      <c r="U114" s="46"/>
-      <c r="V114" s="46"/>
-      <c r="W114" s="46"/>
       <c r="X114" s="8"/>
     </row>
     <row r="115" spans="3:24">
       <c r="C115" s="5"/>
-      <c r="D115" s="45" t="s">
+      <c r="D115" s="6" t="s">
         <v>1130</v>
       </c>
-      <c r="E115" s="46"/>
-      <c r="F115" s="46"/>
-      <c r="G115" s="46"/>
-      <c r="H115" s="46"/>
-      <c r="I115" s="46"/>
-      <c r="J115" s="46"/>
-      <c r="K115" s="46"/>
-      <c r="L115" s="46"/>
-      <c r="M115" s="46"/>
-      <c r="N115" s="46"/>
-      <c r="O115" s="46"/>
-      <c r="P115" s="46"/>
-      <c r="Q115" s="46"/>
-      <c r="R115" s="46"/>
-      <c r="S115" s="46"/>
-      <c r="T115" s="46"/>
-      <c r="U115" s="46"/>
-      <c r="V115" s="46"/>
-      <c r="W115" s="46"/>
       <c r="X115" s="8"/>
     </row>
     <row r="116" spans="3:24">
       <c r="C116" s="5"/>
-      <c r="D116" s="47" t="s">
+      <c r="D116" s="9" t="s">
         <v>1131</v>
       </c>
-      <c r="E116" s="46"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="46"/>
-      <c r="I116" s="46"/>
-      <c r="J116" s="46"/>
-      <c r="K116" s="46"/>
-      <c r="L116" s="46"/>
-      <c r="M116" s="46"/>
-      <c r="N116" s="46"/>
-      <c r="O116" s="46"/>
-      <c r="P116" s="46"/>
-      <c r="Q116" s="46"/>
-      <c r="R116" s="46"/>
-      <c r="S116" s="46"/>
-      <c r="T116" s="46"/>
-      <c r="U116" s="46"/>
-      <c r="V116" s="46"/>
-      <c r="W116" s="46"/>
       <c r="X116" s="8"/>
     </row>
     <row r="117" spans="3:24">
       <c r="C117" s="5"/>
-      <c r="D117" s="47" t="s">
+      <c r="D117" s="9" t="s">
         <v>1123</v>
       </c>
-      <c r="E117" s="46"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="46"/>
-      <c r="H117" s="46"/>
-      <c r="I117" s="46"/>
-      <c r="J117" s="46"/>
-      <c r="K117" s="46"/>
-      <c r="L117" s="46"/>
-      <c r="M117" s="46"/>
-      <c r="N117" s="46"/>
-      <c r="O117" s="46"/>
-      <c r="P117" s="46"/>
-      <c r="Q117" s="46"/>
-      <c r="R117" s="46"/>
-      <c r="S117" s="46"/>
-      <c r="T117" s="46"/>
-      <c r="U117" s="46"/>
-      <c r="V117" s="46"/>
-      <c r="W117" s="46"/>
       <c r="X117" s="8"/>
     </row>
     <row r="118" spans="3:24">
       <c r="C118" s="5"/>
-      <c r="D118" s="46"/>
-      <c r="E118" s="46"/>
-      <c r="F118" s="46"/>
-      <c r="G118" s="46"/>
-      <c r="H118" s="46"/>
-      <c r="I118" s="46"/>
-      <c r="J118" s="46"/>
-      <c r="K118" s="46"/>
-      <c r="L118" s="46"/>
-      <c r="M118" s="46"/>
-      <c r="N118" s="46"/>
-      <c r="O118" s="46"/>
-      <c r="P118" s="46"/>
-      <c r="Q118" s="46"/>
-      <c r="R118" s="46"/>
-      <c r="S118" s="46"/>
-      <c r="T118" s="46"/>
-      <c r="U118" s="46"/>
-      <c r="V118" s="46"/>
-      <c r="W118" s="46"/>
       <c r="X118" s="8"/>
     </row>
     <row r="119" spans="3:24">
       <c r="C119" s="5"/>
-      <c r="D119" s="45" t="s">
+      <c r="D119" s="6" t="s">
         <v>1132</v>
       </c>
-      <c r="E119" s="46"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="46"/>
-      <c r="I119" s="46"/>
-      <c r="J119" s="46"/>
-      <c r="K119" s="46"/>
-      <c r="L119" s="46"/>
-      <c r="M119" s="46"/>
-      <c r="N119" s="46"/>
-      <c r="O119" s="46"/>
-      <c r="P119" s="46"/>
-      <c r="Q119" s="46"/>
-      <c r="R119" s="46"/>
-      <c r="S119" s="46"/>
-      <c r="T119" s="46"/>
-      <c r="U119" s="46"/>
-      <c r="V119" s="46"/>
-      <c r="W119" s="46"/>
       <c r="X119" s="8"/>
     </row>
     <row r="120" spans="3:24">
       <c r="C120" s="5"/>
-      <c r="D120" s="47" t="s">
+      <c r="D120" s="9" t="s">
         <v>1133</v>
       </c>
-      <c r="E120" s="46"/>
-      <c r="F120" s="46"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="46"/>
-      <c r="I120" s="46"/>
-      <c r="J120" s="46"/>
-      <c r="K120" s="46"/>
-      <c r="L120" s="46"/>
-      <c r="M120" s="46"/>
-      <c r="N120" s="46"/>
-      <c r="O120" s="46"/>
-      <c r="P120" s="46"/>
-      <c r="Q120" s="46"/>
-      <c r="R120" s="46"/>
-      <c r="S120" s="46"/>
-      <c r="T120" s="46"/>
-      <c r="U120" s="46"/>
-      <c r="V120" s="46"/>
-      <c r="W120" s="46"/>
       <c r="X120" s="8"/>
     </row>
     <row r="121" spans="3:24">
       <c r="C121" s="5"/>
-      <c r="D121" s="46"/>
-      <c r="E121" s="46"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="46"/>
-      <c r="I121" s="46"/>
-      <c r="J121" s="46"/>
-      <c r="K121" s="46"/>
-      <c r="L121" s="46"/>
-      <c r="M121" s="46"/>
-      <c r="N121" s="46"/>
-      <c r="O121" s="46"/>
-      <c r="P121" s="46"/>
-      <c r="Q121" s="46"/>
-      <c r="R121" s="46"/>
-      <c r="S121" s="46"/>
-      <c r="T121" s="46"/>
-      <c r="U121" s="46"/>
-      <c r="V121" s="46"/>
-      <c r="W121" s="46"/>
       <c r="X121" s="8"/>
     </row>
     <row r="122" spans="3:24">
       <c r="C122" s="5"/>
-      <c r="D122" s="47" t="s">
+      <c r="D122" s="9" t="s">
         <v>1134</v>
       </c>
-      <c r="E122" s="46"/>
-      <c r="F122" s="46"/>
-      <c r="G122" s="46"/>
-      <c r="H122" s="46"/>
-      <c r="I122" s="46"/>
-      <c r="J122" s="46"/>
-      <c r="K122" s="46"/>
-      <c r="L122" s="46"/>
-      <c r="M122" s="46"/>
-      <c r="N122" s="46"/>
-      <c r="O122" s="46"/>
-      <c r="P122" s="46"/>
-      <c r="Q122" s="46"/>
-      <c r="R122" s="46"/>
-      <c r="S122" s="46"/>
-      <c r="T122" s="46"/>
-      <c r="U122" s="46"/>
-      <c r="V122" s="46"/>
-      <c r="W122" s="46"/>
       <c r="X122" s="8"/>
     </row>
     <row r="123" spans="3:24">
       <c r="C123" s="5"/>
-      <c r="D123" s="50" t="s">
+      <c r="D123" s="45" t="s">
         <v>1135</v>
       </c>
-      <c r="E123" s="46"/>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
-      <c r="H123" s="46"/>
-      <c r="I123" s="46"/>
-      <c r="J123" s="46"/>
-      <c r="K123" s="46"/>
-      <c r="L123" s="46"/>
-      <c r="M123" s="46"/>
-      <c r="N123" s="46"/>
-      <c r="O123" s="46"/>
-      <c r="P123" s="46"/>
-      <c r="Q123" s="46"/>
-      <c r="R123" s="46"/>
-      <c r="S123" s="46"/>
-      <c r="T123" s="46"/>
-      <c r="U123" s="46"/>
-      <c r="V123" s="46"/>
-      <c r="W123" s="46"/>
       <c r="X123" s="8"/>
     </row>
     <row r="124" spans="3:24">
       <c r="C124" s="5"/>
-      <c r="D124" s="47" t="s">
+      <c r="D124" s="9" t="s">
         <v>1136</v>
       </c>
-      <c r="E124" s="46"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="46"/>
-      <c r="I124" s="46"/>
-      <c r="J124" s="46"/>
-      <c r="K124" s="46"/>
-      <c r="L124" s="46"/>
-      <c r="M124" s="46"/>
-      <c r="N124" s="46"/>
-      <c r="O124" s="46"/>
-      <c r="P124" s="46"/>
-      <c r="Q124" s="46"/>
-      <c r="R124" s="46"/>
-      <c r="S124" s="46"/>
-      <c r="T124" s="46"/>
-      <c r="U124" s="46"/>
-      <c r="V124" s="46"/>
-      <c r="W124" s="46"/>
       <c r="X124" s="8"/>
     </row>
     <row r="125" spans="3:24">
       <c r="C125" s="5"/>
-      <c r="D125" s="47" t="s">
+      <c r="D125" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E125" s="46"/>
-      <c r="F125" s="46"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="46"/>
-      <c r="I125" s="46"/>
-      <c r="J125" s="46"/>
-      <c r="K125" s="46"/>
-      <c r="L125" s="46"/>
-      <c r="M125" s="46"/>
-      <c r="N125" s="46"/>
-      <c r="O125" s="46"/>
-      <c r="P125" s="46"/>
-      <c r="Q125" s="46"/>
-      <c r="R125" s="46"/>
-      <c r="S125" s="46"/>
-      <c r="T125" s="46"/>
-      <c r="U125" s="46"/>
-      <c r="V125" s="46"/>
-      <c r="W125" s="46"/>
       <c r="X125" s="8"/>
     </row>
     <row r="126" spans="3:24">
       <c r="C126" s="5"/>
-      <c r="D126" s="47" t="s">
+      <c r="D126" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E126" s="46"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="46"/>
-      <c r="J126" s="46"/>
-      <c r="K126" s="46"/>
-      <c r="L126" s="46"/>
-      <c r="M126" s="46"/>
-      <c r="N126" s="46"/>
-      <c r="O126" s="46"/>
-      <c r="P126" s="46"/>
-      <c r="Q126" s="46"/>
-      <c r="R126" s="46"/>
-      <c r="S126" s="46"/>
-      <c r="T126" s="46"/>
-      <c r="U126" s="46"/>
-      <c r="V126" s="46"/>
-      <c r="W126" s="46"/>
       <c r="X126" s="8"/>
     </row>
     <row r="127" spans="3:24" ht="25" thickBot="1">
@@ -49995,4 +50197,786 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDFF2A3-8FB9-A940-B3F7-0D3C11C186BB}">
+  <dimension ref="C1:D223"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="24"/>
+  <cols>
+    <col min="1" max="16384" width="6.7109375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:4">
+      <c r="C1" s="7" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4">
+      <c r="C2" s="44" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="D13" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="D14" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="D16" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="D17" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="D19" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="D20" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="D21" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="D22" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="D23" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="D24" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="D25" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="D30" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="D32" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="9" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="9" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="9" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="9" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="9" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="18" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="6" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="9" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="16" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" s="6" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" s="9" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" s="9" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="9" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" s="9" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" s="9" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="9" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" s="9" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" s="9" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="9" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="9" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" s="9" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" s="9" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" s="9" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" s="9" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" s="9" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" s="9" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" s="9" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" s="9" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" s="9" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" s="9" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" s="9" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" s="9" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" s="9" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" s="9" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" s="9" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" s="9" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="D108" s="9" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109" s="9" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="D110" s="9" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="D111" s="9" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4">
+      <c r="D112" s="9" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" s="9" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="9" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" s="9" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" s="9" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" s="9" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" s="9" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="D123" s="9" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="D124" s="9" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="D125" s="9" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4">
+      <c r="D126" s="9" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4">
+      <c r="D127" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4">
+      <c r="D128" s="9" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="D129" s="9" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4">
+      <c r="D130" s="9" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4">
+      <c r="D131" s="9" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4">
+      <c r="D132" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="D133" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4">
+      <c r="D134" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4">
+      <c r="D136" s="9" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4">
+      <c r="D137" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4">
+      <c r="D139" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4">
+      <c r="D140" s="18" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4">
+      <c r="D141" s="9" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4">
+      <c r="D143" s="9" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4">
+      <c r="D144" s="9" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4">
+      <c r="D145" s="9" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4">
+      <c r="D146" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4">
+      <c r="D147" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4">
+      <c r="D149" s="18" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4">
+      <c r="D151" s="6" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4">
+      <c r="D152" s="9" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4">
+      <c r="D153" s="9" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4">
+      <c r="D155" s="9" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4">
+      <c r="D156" s="9" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4">
+      <c r="D157" s="9" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4">
+      <c r="D158" s="9" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4">
+      <c r="D159" s="9" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4">
+      <c r="D161" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4">
+      <c r="D162" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4">
+      <c r="D163" s="9" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4">
+      <c r="D164" s="9" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4">
+      <c r="D165" s="9" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4">
+      <c r="D166" s="9" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4">
+      <c r="D167" s="9" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4">
+      <c r="D168" s="9" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4">
+      <c r="D169" s="9" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4">
+      <c r="D170" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4">
+      <c r="D171" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4">
+      <c r="D172" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4">
+      <c r="D173" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4">
+      <c r="D174" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4">
+      <c r="D176" s="18" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4">
+      <c r="D178" s="6" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4">
+      <c r="D179" s="9" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4">
+      <c r="D181" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4">
+      <c r="D182" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4">
+      <c r="D183" s="9" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4">
+      <c r="D184" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4">
+      <c r="D185" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" s="15" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8CAF1E9D-3979-5443-BE67-44EAD7A871B1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>